--- a/result_5-iteration.xlsx
+++ b/result_5-iteration.xlsx
@@ -8,35 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Files\UNAIR\SKRIPSI\skripsi-py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13911E27-07C0-417F-A6A1-A686FC7829EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3700AA47-BCD4-4876-BBBD-2629F6116B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="756" windowWidth="13044" windowHeight="10464" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9948" yWindow="612" windowWidth="13044" windowHeight="10464" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
     <sheet name="average" sheetId="2" r:id="rId2"/>
+    <sheet name="lampiran" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">average!$A$1:$G$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main!$A$1:$H$76</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="13">
   <si>
     <t>Fold</t>
   </si>
@@ -62,9 +52,6 @@
     <t>Iterasi</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>Extra-trees</t>
   </si>
   <si>
@@ -78,12 +65,6 @@
   </si>
   <si>
     <t>SVM kernel sigmoid</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
   </si>
 </sst>
 </file>
@@ -144,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -153,6 +134,15 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,18 +447,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -494,413 +484,413 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
       <c r="C2">
-        <v>88.92</v>
+        <v>89.02</v>
       </c>
       <c r="D2">
-        <v>90.85</v>
+        <v>90.81</v>
       </c>
       <c r="E2">
-        <v>46.03</v>
+        <v>45.75</v>
       </c>
       <c r="F2">
-        <v>96.66</v>
+        <v>96.83</v>
       </c>
       <c r="G2">
-        <v>11.08</v>
+        <v>10.98</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
       <c r="C3">
-        <v>89.09</v>
+        <v>88.87</v>
       </c>
       <c r="D3">
-        <v>90.9</v>
+        <v>90.93</v>
       </c>
       <c r="E3">
-        <v>46.6</v>
+        <v>46.75</v>
       </c>
       <c r="F3">
-        <v>96.79</v>
+        <v>96.48</v>
       </c>
       <c r="G3">
-        <v>10.91</v>
+        <v>11.13</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
       <c r="C4">
-        <v>89.31</v>
+        <v>88.94</v>
       </c>
       <c r="D4">
-        <v>91.23</v>
+        <v>90.96</v>
       </c>
       <c r="E4">
-        <v>49.05</v>
+        <v>46.87</v>
       </c>
       <c r="F4">
-        <v>96.69</v>
+        <v>96.54</v>
       </c>
       <c r="G4">
-        <v>10.69</v>
+        <v>11.06</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5">
+        <v>88.3</v>
+      </c>
+      <c r="D5">
+        <v>90.74</v>
+      </c>
+      <c r="E5">
+        <v>45.88</v>
+      </c>
+      <c r="F5">
+        <v>95.99</v>
+      </c>
+      <c r="G5">
+        <v>11.7</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>89.34</v>
+      </c>
+      <c r="D6">
+        <v>91.24</v>
+      </c>
+      <c r="E6">
+        <v>48.5</v>
+      </c>
+      <c r="F6">
+        <v>96.71</v>
+      </c>
+      <c r="G6">
+        <v>10.66</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
-        <v>89.12</v>
-      </c>
-      <c r="D5">
-        <v>91.12</v>
-      </c>
-      <c r="E5">
-        <v>48.02</v>
-      </c>
-      <c r="F5">
-        <v>96.54</v>
-      </c>
-      <c r="G5">
-        <v>10.88</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>89.17</v>
-      </c>
-      <c r="D6">
-        <v>91.07</v>
-      </c>
-      <c r="E6">
-        <v>47.62</v>
-      </c>
-      <c r="F6">
-        <v>96.68</v>
-      </c>
-      <c r="G6">
-        <v>10.83</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
       <c r="C7">
-        <v>88.22</v>
+        <v>88.25</v>
       </c>
       <c r="D7">
-        <v>88.99</v>
+        <v>89</v>
       </c>
       <c r="E7">
-        <v>32.69</v>
+        <v>32.83</v>
       </c>
       <c r="F7">
-        <v>98.24</v>
+        <v>98.27</v>
       </c>
       <c r="G7">
-        <v>11.78</v>
+        <v>11.75</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
+      <c r="A8" s="5">
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>88.17</v>
+        <v>88.32</v>
       </c>
       <c r="D8">
-        <v>88.92</v>
+        <v>89.11</v>
       </c>
       <c r="E8">
-        <v>32.159999999999997</v>
+        <v>33.729999999999997</v>
       </c>
       <c r="F8">
-        <v>98.28</v>
+        <v>98.21</v>
       </c>
       <c r="G8">
-        <v>11.83</v>
+        <v>11.68</v>
       </c>
       <c r="H8">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
+      <c r="A9" s="5">
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>88.25</v>
+        <v>88.39</v>
       </c>
       <c r="D9">
-        <v>89.04</v>
+        <v>89.16</v>
       </c>
       <c r="E9">
-        <v>33.25</v>
+        <v>34.04</v>
       </c>
       <c r="F9">
         <v>98.24</v>
       </c>
       <c r="G9">
-        <v>11.75</v>
+        <v>11.61</v>
       </c>
       <c r="H9">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
+      <c r="A10" s="5">
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>88.22</v>
+        <v>88.12</v>
       </c>
       <c r="D10">
-        <v>89.02</v>
+        <v>88.88</v>
       </c>
       <c r="E10">
-        <v>32.83</v>
+        <v>32.03</v>
       </c>
       <c r="F10">
-        <v>98.21</v>
+        <v>98.27</v>
       </c>
       <c r="G10">
-        <v>11.78</v>
+        <v>11.88</v>
       </c>
       <c r="H10">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="3" t="s">
-        <v>8</v>
+      <c r="A11" s="5">
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>88.29</v>
+        <v>88.15</v>
       </c>
       <c r="D11">
-        <v>89.05</v>
+        <v>88.99</v>
       </c>
       <c r="E11">
-        <v>33.21</v>
+        <v>32.770000000000003</v>
       </c>
       <c r="F11">
-        <v>98.27</v>
+        <v>98.15</v>
       </c>
       <c r="G11">
-        <v>11.71</v>
+        <v>11.85</v>
       </c>
       <c r="H11">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="3" t="s">
-        <v>8</v>
+      <c r="A12" s="5">
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>87.92</v>
+        <v>87.97</v>
       </c>
       <c r="D12">
-        <v>88.37</v>
+        <v>88.41</v>
       </c>
       <c r="E12">
-        <v>28.22</v>
+        <v>28.43</v>
       </c>
       <c r="F12">
         <v>98.74</v>
       </c>
       <c r="G12">
-        <v>12.08</v>
+        <v>12.03</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="3" t="s">
-        <v>8</v>
+      <c r="A13" s="5">
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>87.82</v>
+        <v>87.85</v>
       </c>
       <c r="D13">
-        <v>88.31</v>
+        <v>88.33</v>
       </c>
       <c r="E13">
-        <v>27.77</v>
+        <v>27.9</v>
       </c>
       <c r="F13">
-        <v>98.68</v>
+        <v>98.71</v>
       </c>
       <c r="G13">
-        <v>12.18</v>
+        <v>12.15</v>
       </c>
       <c r="H13">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="3" t="s">
-        <v>8</v>
+      <c r="A14" s="5">
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14">
-        <v>88</v>
+        <v>87.92</v>
       </c>
       <c r="D14">
         <v>88.4</v>
       </c>
       <c r="E14">
-        <v>28.36</v>
+        <v>28.4</v>
       </c>
       <c r="F14">
-        <v>98.8</v>
+        <v>98.69</v>
       </c>
       <c r="G14">
-        <v>12</v>
+        <v>12.08</v>
       </c>
       <c r="H14">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="3" t="s">
-        <v>8</v>
+      <c r="A15" s="5">
+        <v>4</v>
       </c>
       <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>88.02</v>
+      </c>
+      <c r="D15">
+        <v>88.48</v>
+      </c>
+      <c r="E15">
+        <v>29</v>
+      </c>
+      <c r="F15">
+        <v>98.7</v>
+      </c>
+      <c r="G15">
+        <v>11.98</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="5">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>87.85</v>
+      </c>
+      <c r="D16">
+        <v>88.32</v>
+      </c>
+      <c r="E16">
+        <v>27.76</v>
+      </c>
+      <c r="F16">
+        <v>98.71</v>
+      </c>
+      <c r="G16">
+        <v>12.15</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="5">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
         <v>11</v>
-      </c>
-      <c r="C15">
-        <v>87.9</v>
-      </c>
-      <c r="D15">
-        <v>88.36</v>
-      </c>
-      <c r="E15">
-        <v>28.03</v>
-      </c>
-      <c r="F15">
-        <v>98.71</v>
-      </c>
-      <c r="G15">
-        <v>12.1</v>
-      </c>
-      <c r="H15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16">
-        <v>87.97</v>
-      </c>
-      <c r="D16">
-        <v>88.37</v>
-      </c>
-      <c r="E16">
-        <v>27.92</v>
-      </c>
-      <c r="F16">
-        <v>98.79</v>
-      </c>
-      <c r="G16">
-        <v>12.03</v>
-      </c>
-      <c r="H16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
       </c>
       <c r="C17">
         <v>89.09</v>
       </c>
       <c r="D17">
-        <v>90.03</v>
+        <v>90.04</v>
       </c>
       <c r="E17">
-        <v>40.06</v>
+        <v>40.090000000000003</v>
       </c>
       <c r="F17">
-        <v>97.98</v>
+        <v>97.94</v>
       </c>
       <c r="G17">
         <v>10.91</v>
@@ -910,387 +900,387 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="3" t="s">
-        <v>8</v>
+      <c r="A18" s="5">
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18">
-        <v>89.19</v>
+        <v>89.02</v>
       </c>
       <c r="D18">
-        <v>90.13</v>
+        <v>90</v>
       </c>
       <c r="E18">
-        <v>41.02</v>
+        <v>39.950000000000003</v>
       </c>
       <c r="F18">
-        <v>97.98</v>
+        <v>97.92</v>
       </c>
       <c r="G18">
-        <v>10.81</v>
+        <v>10.98</v>
       </c>
       <c r="H18">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="3" t="s">
-        <v>8</v>
+      <c r="A19" s="5">
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19">
-        <v>89.14</v>
+        <v>89.26</v>
       </c>
       <c r="D19">
-        <v>90.05</v>
+        <v>90.06</v>
       </c>
       <c r="E19">
-        <v>40.28</v>
+        <v>40.11</v>
       </c>
       <c r="F19">
-        <v>98.02</v>
+        <v>98.15</v>
       </c>
       <c r="G19">
-        <v>10.86</v>
+        <v>10.74</v>
       </c>
       <c r="H19">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="3" t="s">
-        <v>8</v>
+      <c r="A20" s="5">
+        <v>4</v>
       </c>
       <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>89.29</v>
+      </c>
+      <c r="D20">
+        <v>90.2</v>
+      </c>
+      <c r="E20">
+        <v>41.25</v>
+      </c>
+      <c r="F20">
+        <v>98.01</v>
+      </c>
+      <c r="G20">
+        <v>10.71</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="5">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>89.12</v>
+      </c>
+      <c r="D21">
+        <v>90.05</v>
+      </c>
+      <c r="E21">
+        <v>40.19</v>
+      </c>
+      <c r="F21">
+        <v>97.98</v>
+      </c>
+      <c r="G21">
+        <v>10.88</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="5">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
         <v>12</v>
       </c>
-      <c r="C20">
-        <v>89.04</v>
-      </c>
-      <c r="D20">
-        <v>90.04</v>
-      </c>
-      <c r="E20">
-        <v>40.299999999999997</v>
-      </c>
-      <c r="F20">
-        <v>97.88</v>
-      </c>
-      <c r="G20">
-        <v>10.96</v>
-      </c>
-      <c r="H20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21">
-        <v>89.17</v>
-      </c>
-      <c r="D21">
-        <v>90.13</v>
-      </c>
-      <c r="E21">
-        <v>40.520000000000003</v>
-      </c>
-      <c r="F21">
-        <v>97.95</v>
-      </c>
-      <c r="G21">
-        <v>10.83</v>
-      </c>
-      <c r="H21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
       <c r="C22">
-        <v>73.290000000000006</v>
+        <v>73.239999999999995</v>
       </c>
       <c r="D22">
-        <v>83.84</v>
+        <v>83.74</v>
       </c>
       <c r="E22">
-        <v>9.73</v>
+        <v>8.76</v>
       </c>
       <c r="F22">
-        <v>84.8</v>
+        <v>84.89</v>
       </c>
       <c r="G22">
-        <v>26.71</v>
+        <v>26.76</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="3" t="s">
-        <v>8</v>
+      <c r="A23" s="5">
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23">
-        <v>73.239999999999995</v>
+        <v>73.41</v>
       </c>
       <c r="D23">
-        <v>83.75</v>
+        <v>83.8</v>
       </c>
       <c r="E23">
-        <v>9.08</v>
+        <v>9.01</v>
       </c>
       <c r="F23">
-        <v>84.85</v>
+        <v>85.03</v>
       </c>
       <c r="G23">
-        <v>26.76</v>
+        <v>26.59</v>
       </c>
       <c r="H23">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="3" t="s">
-        <v>8</v>
+      <c r="A24" s="5">
+        <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24">
-        <v>73.34</v>
+        <v>73.209999999999994</v>
       </c>
       <c r="D24">
-        <v>83.82</v>
+        <v>83.72</v>
       </c>
       <c r="E24">
-        <v>9.1300000000000008</v>
+        <v>8.7799999999999994</v>
       </c>
       <c r="F24">
-        <v>84.93</v>
+        <v>84.86</v>
       </c>
       <c r="G24">
-        <v>26.66</v>
+        <v>26.79</v>
       </c>
       <c r="H24">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="5">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>73.38</v>
+      </c>
+      <c r="D25">
+        <v>83.8</v>
+      </c>
+      <c r="E25">
+        <v>9.07</v>
+      </c>
+      <c r="F25">
+        <v>85.01</v>
+      </c>
+      <c r="G25">
+        <v>26.62</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="5">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>73.260000000000005</v>
+      </c>
+      <c r="D26">
+        <v>83.78</v>
+      </c>
+      <c r="E26">
+        <v>9.19</v>
+      </c>
+      <c r="F26">
+        <v>84.86</v>
+      </c>
+      <c r="G26">
+        <v>26.74</v>
+      </c>
+      <c r="H26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="5">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
         <v>8</v>
       </c>
-      <c r="B25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25">
-        <v>73.19</v>
-      </c>
-      <c r="D25">
-        <v>83.77</v>
-      </c>
-      <c r="E25">
-        <v>9.18</v>
-      </c>
-      <c r="F25">
-        <v>84.73</v>
-      </c>
-      <c r="G25">
-        <v>26.81</v>
-      </c>
-      <c r="H25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26">
-        <v>73.19</v>
-      </c>
-      <c r="D26">
-        <v>83.77</v>
-      </c>
-      <c r="E26">
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="F26">
-        <v>84.73</v>
-      </c>
-      <c r="G26">
-        <v>26.81</v>
-      </c>
-      <c r="H26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" t="s">
-        <v>9</v>
-      </c>
       <c r="C27">
-        <v>89.02</v>
+        <v>88.97</v>
       </c>
       <c r="D27">
-        <v>90.81</v>
+        <v>90.92</v>
       </c>
       <c r="E27">
-        <v>45.75</v>
+        <v>46.72</v>
       </c>
       <c r="F27">
-        <v>96.83</v>
+        <v>96.63</v>
       </c>
       <c r="G27">
-        <v>10.98</v>
+        <v>11.03</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="3" t="s">
-        <v>14</v>
+      <c r="A28" s="5">
+        <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C28">
-        <v>88.87</v>
+        <v>89.04</v>
       </c>
       <c r="D28">
-        <v>90.93</v>
+        <v>91.04</v>
       </c>
       <c r="E28">
-        <v>46.75</v>
+        <v>47.39</v>
       </c>
       <c r="F28">
-        <v>96.48</v>
+        <v>96.58</v>
       </c>
       <c r="G28">
-        <v>11.13</v>
+        <v>10.96</v>
       </c>
       <c r="H28">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="3" t="s">
-        <v>14</v>
+      <c r="A29" s="5">
+        <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C29">
-        <v>88.94</v>
+        <v>89.39</v>
       </c>
       <c r="D29">
-        <v>90.96</v>
+        <v>91.19</v>
       </c>
       <c r="E29">
-        <v>46.87</v>
+        <v>48.23</v>
       </c>
       <c r="F29">
-        <v>96.54</v>
+        <v>96.83</v>
       </c>
       <c r="G29">
-        <v>11.06</v>
+        <v>10.61</v>
       </c>
       <c r="H29">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="3" t="s">
-        <v>14</v>
+      <c r="A30" s="5">
+        <v>5</v>
       </c>
       <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>89.14</v>
+      </c>
+      <c r="D30">
+        <v>91.07</v>
+      </c>
+      <c r="E30">
+        <v>47.54</v>
+      </c>
+      <c r="F30">
+        <v>96.67</v>
+      </c>
+      <c r="G30">
+        <v>10.86</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="5">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>88.94</v>
+      </c>
+      <c r="D31">
+        <v>90.8</v>
+      </c>
+      <c r="E31">
+        <v>46.05</v>
+      </c>
+      <c r="F31">
+        <v>96.75</v>
+      </c>
+      <c r="G31">
+        <v>11.06</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="5">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
         <v>9</v>
-      </c>
-      <c r="C30">
-        <v>88.3</v>
-      </c>
-      <c r="D30">
-        <v>90.74</v>
-      </c>
-      <c r="E30">
-        <v>45.88</v>
-      </c>
-      <c r="F30">
-        <v>95.99</v>
-      </c>
-      <c r="G30">
-        <v>11.7</v>
-      </c>
-      <c r="H30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31">
-        <v>89.34</v>
-      </c>
-      <c r="D31">
-        <v>91.24</v>
-      </c>
-      <c r="E31">
-        <v>48.5</v>
-      </c>
-      <c r="F31">
-        <v>96.71</v>
-      </c>
-      <c r="G31">
-        <v>10.66</v>
-      </c>
-      <c r="H31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" t="s">
-        <v>10</v>
       </c>
       <c r="C32">
         <v>88.25</v>
       </c>
       <c r="D32">
-        <v>89</v>
+        <v>89.04</v>
       </c>
       <c r="E32">
-        <v>32.83</v>
+        <v>33.130000000000003</v>
       </c>
       <c r="F32">
-        <v>98.27</v>
+        <v>98.21</v>
       </c>
       <c r="G32">
         <v>11.75</v>
@@ -1300,245 +1290,245 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="3" t="s">
-        <v>14</v>
+      <c r="A33" s="5">
+        <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C33">
-        <v>88.32</v>
+        <v>88.3</v>
       </c>
       <c r="D33">
-        <v>89.11</v>
+        <v>89.09</v>
       </c>
       <c r="E33">
-        <v>33.729999999999997</v>
+        <v>33.39</v>
       </c>
       <c r="F33">
         <v>98.21</v>
       </c>
       <c r="G33">
-        <v>11.68</v>
+        <v>11.7</v>
       </c>
       <c r="H33">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="3" t="s">
-        <v>14</v>
+      <c r="A34" s="5">
+        <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C34">
-        <v>88.39</v>
+        <v>88.17</v>
       </c>
       <c r="D34">
-        <v>89.16</v>
+        <v>88.93</v>
       </c>
       <c r="E34">
-        <v>34.04</v>
+        <v>32.270000000000003</v>
       </c>
       <c r="F34">
-        <v>98.24</v>
+        <v>98.27</v>
       </c>
       <c r="G34">
-        <v>11.61</v>
+        <v>11.83</v>
       </c>
       <c r="H34">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="3" t="s">
-        <v>14</v>
+      <c r="A35" s="5">
+        <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C35">
-        <v>88.12</v>
+        <v>88.3</v>
       </c>
       <c r="D35">
-        <v>88.88</v>
+        <v>89.09</v>
       </c>
       <c r="E35">
-        <v>32.03</v>
+        <v>33.409999999999997</v>
       </c>
       <c r="F35">
-        <v>98.27</v>
+        <v>98.21</v>
       </c>
       <c r="G35">
-        <v>11.88</v>
+        <v>11.7</v>
       </c>
       <c r="H35">
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="3" t="s">
-        <v>14</v>
+      <c r="A36" s="5">
+        <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C36">
-        <v>88.15</v>
+        <v>88.25</v>
       </c>
       <c r="D36">
-        <v>88.99</v>
+        <v>89.03</v>
       </c>
       <c r="E36">
-        <v>32.770000000000003</v>
+        <v>33.15</v>
       </c>
       <c r="F36">
-        <v>98.15</v>
+        <v>98.24</v>
       </c>
       <c r="G36">
-        <v>11.85</v>
+        <v>11.75</v>
       </c>
       <c r="H36">
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="3" t="s">
-        <v>14</v>
+      <c r="A37" s="5">
+        <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C37">
-        <v>87.97</v>
+        <v>87.95</v>
       </c>
       <c r="D37">
-        <v>88.41</v>
+        <v>88.37</v>
       </c>
       <c r="E37">
-        <v>28.43</v>
+        <v>28.12</v>
       </c>
       <c r="F37">
-        <v>98.74</v>
+        <v>98.77</v>
       </c>
       <c r="G37">
-        <v>12.03</v>
+        <v>12.05</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="3" t="s">
-        <v>14</v>
+      <c r="A38" s="5">
+        <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C38">
-        <v>87.85</v>
+        <v>88</v>
       </c>
       <c r="D38">
-        <v>88.33</v>
+        <v>88.48</v>
       </c>
       <c r="E38">
-        <v>27.9</v>
+        <v>28.96</v>
       </c>
       <c r="F38">
-        <v>98.71</v>
+        <v>98.68</v>
       </c>
       <c r="G38">
-        <v>12.15</v>
+        <v>12</v>
       </c>
       <c r="H38">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="3" t="s">
-        <v>14</v>
+      <c r="A39" s="5">
+        <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C39">
-        <v>87.92</v>
+        <v>87.85</v>
       </c>
       <c r="D39">
-        <v>88.4</v>
+        <v>88.3</v>
       </c>
       <c r="E39">
-        <v>28.4</v>
+        <v>27.64</v>
       </c>
       <c r="F39">
-        <v>98.69</v>
+        <v>98.71</v>
       </c>
       <c r="G39">
-        <v>12.08</v>
+        <v>12.15</v>
       </c>
       <c r="H39">
         <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="3" t="s">
-        <v>14</v>
+      <c r="A40" s="5">
+        <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C40">
+        <v>87.92</v>
+      </c>
+      <c r="D40">
+        <v>88.39</v>
+      </c>
+      <c r="E40">
+        <v>28.46</v>
+      </c>
+      <c r="F40">
+        <v>98.71</v>
+      </c>
+      <c r="G40">
+        <v>12.08</v>
+      </c>
+      <c r="H40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="5">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41">
         <v>88.02</v>
       </c>
-      <c r="D40">
-        <v>88.48</v>
-      </c>
-      <c r="E40">
-        <v>29</v>
-      </c>
-      <c r="F40">
-        <v>98.7</v>
-      </c>
-      <c r="G40">
-        <v>11.98</v>
-      </c>
-      <c r="H40">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41">
-        <v>87.85</v>
-      </c>
       <c r="D41">
-        <v>88.32</v>
+        <v>88.47</v>
       </c>
       <c r="E41">
-        <v>27.76</v>
+        <v>28.71</v>
       </c>
       <c r="F41">
         <v>98.71</v>
       </c>
       <c r="G41">
-        <v>12.15</v>
+        <v>11.98</v>
       </c>
       <c r="H41">
         <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="3" t="s">
-        <v>14</v>
+      <c r="A42" s="5">
+        <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C42">
         <v>89.09</v>
@@ -1547,10 +1537,10 @@
         <v>90.04</v>
       </c>
       <c r="E42">
-        <v>40.090000000000003</v>
+        <v>40.21</v>
       </c>
       <c r="F42">
-        <v>97.94</v>
+        <v>97.95</v>
       </c>
       <c r="G42">
         <v>10.91</v>
@@ -1560,647 +1550,647 @@
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="3" t="s">
-        <v>14</v>
+      <c r="A43" s="5">
+        <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C43">
-        <v>89.02</v>
+        <v>89.21</v>
       </c>
       <c r="D43">
-        <v>90</v>
+        <v>90.14</v>
       </c>
       <c r="E43">
-        <v>39.950000000000003</v>
+        <v>40.9</v>
       </c>
       <c r="F43">
-        <v>97.92</v>
+        <v>97.97</v>
       </c>
       <c r="G43">
-        <v>10.98</v>
+        <v>10.79</v>
       </c>
       <c r="H43">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="3" t="s">
-        <v>14</v>
+      <c r="A44" s="5">
+        <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C44">
-        <v>89.26</v>
+        <v>89.16</v>
       </c>
       <c r="D44">
-        <v>90.06</v>
+        <v>90.07</v>
       </c>
       <c r="E44">
-        <v>40.11</v>
+        <v>40.159999999999997</v>
       </c>
       <c r="F44">
-        <v>98.15</v>
+        <v>98</v>
       </c>
       <c r="G44">
-        <v>10.74</v>
+        <v>10.84</v>
       </c>
       <c r="H44">
         <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="3" t="s">
-        <v>14</v>
+      <c r="A45" s="5">
+        <v>5</v>
       </c>
       <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45">
+        <v>89.11</v>
+      </c>
+      <c r="D45">
+        <v>90.04</v>
+      </c>
+      <c r="E45">
+        <v>40.130000000000003</v>
+      </c>
+      <c r="F45">
+        <v>97.97</v>
+      </c>
+      <c r="G45">
+        <v>10.89</v>
+      </c>
+      <c r="H45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="5">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46">
+        <v>89.21</v>
+      </c>
+      <c r="D46">
+        <v>90.21</v>
+      </c>
+      <c r="E46">
+        <v>41.14</v>
+      </c>
+      <c r="F46">
+        <v>97.88</v>
+      </c>
+      <c r="G46">
+        <v>10.79</v>
+      </c>
+      <c r="H46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="5">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
         <v>12</v>
       </c>
-      <c r="C45">
-        <v>89.29</v>
-      </c>
-      <c r="D45">
-        <v>90.2</v>
-      </c>
-      <c r="E45">
-        <v>41.25</v>
-      </c>
-      <c r="F45">
-        <v>98.01</v>
-      </c>
-      <c r="G45">
-        <v>10.71</v>
-      </c>
-      <c r="H45">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B46" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46">
-        <v>89.12</v>
-      </c>
-      <c r="D46">
-        <v>90.05</v>
-      </c>
-      <c r="E46">
-        <v>40.19</v>
-      </c>
-      <c r="F46">
-        <v>97.98</v>
-      </c>
-      <c r="G46">
-        <v>10.88</v>
-      </c>
-      <c r="H46">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B47" t="s">
-        <v>13</v>
-      </c>
       <c r="C47">
-        <v>73.239999999999995</v>
+        <v>73.06</v>
       </c>
       <c r="D47">
         <v>83.74</v>
       </c>
       <c r="E47">
-        <v>8.76</v>
+        <v>9.1300000000000008</v>
       </c>
       <c r="F47">
-        <v>84.89</v>
+        <v>84.67</v>
       </c>
       <c r="G47">
-        <v>26.76</v>
+        <v>26.94</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="3" t="s">
-        <v>14</v>
+      <c r="A48" s="5">
+        <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C48">
-        <v>73.41</v>
+        <v>73.19</v>
       </c>
       <c r="D48">
-        <v>83.8</v>
+        <v>83.77</v>
       </c>
       <c r="E48">
-        <v>9.01</v>
+        <v>9.0399999999999991</v>
       </c>
       <c r="F48">
-        <v>85.03</v>
+        <v>84.79</v>
       </c>
       <c r="G48">
-        <v>26.59</v>
+        <v>26.81</v>
       </c>
       <c r="H48">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="3" t="s">
-        <v>14</v>
+      <c r="A49" s="5">
+        <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C49">
-        <v>73.209999999999994</v>
+        <v>73.36</v>
       </c>
       <c r="D49">
-        <v>83.72</v>
+        <v>83.81</v>
       </c>
       <c r="E49">
-        <v>8.7799999999999994</v>
+        <v>9.18</v>
       </c>
       <c r="F49">
-        <v>84.86</v>
+        <v>84.95</v>
       </c>
       <c r="G49">
-        <v>26.79</v>
+        <v>26.64</v>
       </c>
       <c r="H49">
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="3" t="s">
-        <v>14</v>
+      <c r="A50" s="5">
+        <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C50">
-        <v>73.38</v>
+        <v>73.290000000000006</v>
       </c>
       <c r="D50">
-        <v>83.8</v>
+        <v>83.76</v>
       </c>
       <c r="E50">
-        <v>9.07</v>
+        <v>8.81</v>
       </c>
       <c r="F50">
-        <v>85.01</v>
+        <v>84.91</v>
       </c>
       <c r="G50">
-        <v>26.62</v>
+        <v>26.71</v>
       </c>
       <c r="H50">
         <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="3" t="s">
-        <v>14</v>
+      <c r="A51" s="5">
+        <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C51">
-        <v>73.260000000000005</v>
+        <v>73.11</v>
       </c>
       <c r="D51">
-        <v>83.78</v>
+        <v>83.66</v>
       </c>
       <c r="E51">
-        <v>9.19</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="F51">
-        <v>84.86</v>
+        <v>84.8</v>
       </c>
       <c r="G51">
-        <v>26.74</v>
+        <v>26.89</v>
       </c>
       <c r="H51">
         <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="3" t="s">
-        <v>15</v>
+      <c r="A52" s="8">
+        <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C52">
-        <v>88.97</v>
+        <v>88.92</v>
       </c>
       <c r="D52">
-        <v>90.92</v>
+        <v>90.85</v>
       </c>
       <c r="E52">
-        <v>46.72</v>
+        <v>46.03</v>
       </c>
       <c r="F52">
-        <v>96.63</v>
+        <v>96.66</v>
       </c>
       <c r="G52">
-        <v>11.03</v>
+        <v>11.08</v>
       </c>
       <c r="H52">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="3" t="s">
-        <v>15</v>
+      <c r="A53" s="5">
+        <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C53">
-        <v>89.04</v>
+        <v>89.09</v>
       </c>
       <c r="D53">
-        <v>91.04</v>
+        <v>90.9</v>
       </c>
       <c r="E53">
-        <v>47.39</v>
+        <v>46.6</v>
       </c>
       <c r="F53">
-        <v>96.58</v>
+        <v>96.79</v>
       </c>
       <c r="G53">
-        <v>10.96</v>
+        <v>10.91</v>
       </c>
       <c r="H53">
         <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="3" t="s">
-        <v>15</v>
+      <c r="A54" s="5">
+        <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C54">
-        <v>89.39</v>
+        <v>89.31</v>
       </c>
       <c r="D54">
-        <v>91.19</v>
+        <v>91.23</v>
       </c>
       <c r="E54">
-        <v>48.23</v>
+        <v>49.05</v>
       </c>
       <c r="F54">
-        <v>96.83</v>
+        <v>96.69</v>
       </c>
       <c r="G54">
-        <v>10.61</v>
+        <v>10.69</v>
       </c>
       <c r="H54">
         <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="3" t="s">
-        <v>15</v>
+      <c r="A55" s="5">
+        <v>10</v>
       </c>
       <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55">
+        <v>89.12</v>
+      </c>
+      <c r="D55">
+        <v>91.12</v>
+      </c>
+      <c r="E55">
+        <v>48.02</v>
+      </c>
+      <c r="F55">
+        <v>96.54</v>
+      </c>
+      <c r="G55">
+        <v>10.88</v>
+      </c>
+      <c r="H55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="5">
+        <v>10</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56">
+        <v>89.17</v>
+      </c>
+      <c r="D56">
+        <v>91.07</v>
+      </c>
+      <c r="E56">
+        <v>47.62</v>
+      </c>
+      <c r="F56">
+        <v>96.68</v>
+      </c>
+      <c r="G56">
+        <v>10.83</v>
+      </c>
+      <c r="H56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="5">
+        <v>10</v>
+      </c>
+      <c r="B57" t="s">
         <v>9</v>
       </c>
-      <c r="C55">
-        <v>89.14</v>
-      </c>
-      <c r="D55">
-        <v>91.07</v>
-      </c>
-      <c r="E55">
-        <v>47.54</v>
-      </c>
-      <c r="F55">
-        <v>96.67</v>
-      </c>
-      <c r="G55">
-        <v>10.86</v>
-      </c>
-      <c r="H55">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B56" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56">
-        <v>88.94</v>
-      </c>
-      <c r="D56">
-        <v>90.8</v>
-      </c>
-      <c r="E56">
-        <v>46.05</v>
-      </c>
-      <c r="F56">
-        <v>96.75</v>
-      </c>
-      <c r="G56">
-        <v>11.06</v>
-      </c>
-      <c r="H56">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B57" t="s">
-        <v>10</v>
-      </c>
       <c r="C57">
-        <v>88.25</v>
+        <v>88.22</v>
       </c>
       <c r="D57">
-        <v>89.04</v>
+        <v>88.99</v>
       </c>
       <c r="E57">
-        <v>33.130000000000003</v>
+        <v>32.69</v>
       </c>
       <c r="F57">
-        <v>98.21</v>
+        <v>98.24</v>
       </c>
       <c r="G57">
-        <v>11.75</v>
+        <v>11.78</v>
       </c>
       <c r="H57">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="3" t="s">
-        <v>15</v>
+      <c r="A58" s="5">
+        <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C58">
-        <v>88.3</v>
+        <v>88.17</v>
       </c>
       <c r="D58">
-        <v>89.09</v>
+        <v>88.92</v>
       </c>
       <c r="E58">
-        <v>33.39</v>
+        <v>32.159999999999997</v>
       </c>
       <c r="F58">
-        <v>98.21</v>
+        <v>98.28</v>
       </c>
       <c r="G58">
-        <v>11.7</v>
+        <v>11.83</v>
       </c>
       <c r="H58">
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="3" t="s">
-        <v>15</v>
+      <c r="A59" s="5">
+        <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C59">
-        <v>88.17</v>
+        <v>88.25</v>
       </c>
       <c r="D59">
-        <v>88.93</v>
+        <v>89.04</v>
       </c>
       <c r="E59">
-        <v>32.270000000000003</v>
+        <v>33.25</v>
       </c>
       <c r="F59">
-        <v>98.27</v>
+        <v>98.24</v>
       </c>
       <c r="G59">
-        <v>11.83</v>
+        <v>11.75</v>
       </c>
       <c r="H59">
         <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="3" t="s">
-        <v>15</v>
+      <c r="A60" s="5">
+        <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C60">
-        <v>88.3</v>
+        <v>88.22</v>
       </c>
       <c r="D60">
-        <v>89.09</v>
+        <v>89.02</v>
       </c>
       <c r="E60">
-        <v>33.409999999999997</v>
+        <v>32.83</v>
       </c>
       <c r="F60">
         <v>98.21</v>
       </c>
       <c r="G60">
-        <v>11.7</v>
+        <v>11.78</v>
       </c>
       <c r="H60">
         <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="3" t="s">
-        <v>15</v>
+      <c r="A61" s="5">
+        <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C61">
-        <v>88.25</v>
+        <v>88.29</v>
       </c>
       <c r="D61">
-        <v>89.03</v>
+        <v>89.05</v>
       </c>
       <c r="E61">
-        <v>33.15</v>
+        <v>33.21</v>
       </c>
       <c r="F61">
-        <v>98.24</v>
+        <v>98.27</v>
       </c>
       <c r="G61">
-        <v>11.75</v>
+        <v>11.71</v>
       </c>
       <c r="H61">
         <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="3" t="s">
-        <v>15</v>
+      <c r="A62" s="5">
+        <v>10</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C62">
-        <v>87.95</v>
+        <v>87.92</v>
       </c>
       <c r="D62">
         <v>88.37</v>
       </c>
       <c r="E62">
-        <v>28.12</v>
+        <v>28.22</v>
       </c>
       <c r="F62">
-        <v>98.77</v>
+        <v>98.74</v>
       </c>
       <c r="G62">
-        <v>12.05</v>
+        <v>12.08</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="3" t="s">
-        <v>15</v>
+      <c r="A63" s="5">
+        <v>10</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C63">
-        <v>88</v>
+        <v>87.82</v>
       </c>
       <c r="D63">
-        <v>88.48</v>
+        <v>88.31</v>
       </c>
       <c r="E63">
-        <v>28.96</v>
+        <v>27.77</v>
       </c>
       <c r="F63">
         <v>98.68</v>
       </c>
       <c r="G63">
-        <v>12</v>
+        <v>12.18</v>
       </c>
       <c r="H63">
         <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="3" t="s">
-        <v>15</v>
+      <c r="A64" s="5">
+        <v>10</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C64">
-        <v>87.85</v>
+        <v>88</v>
       </c>
       <c r="D64">
-        <v>88.3</v>
+        <v>88.4</v>
       </c>
       <c r="E64">
-        <v>27.64</v>
+        <v>28.36</v>
       </c>
       <c r="F64">
-        <v>98.71</v>
+        <v>98.8</v>
       </c>
       <c r="G64">
-        <v>12.15</v>
+        <v>12</v>
       </c>
       <c r="H64">
         <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="3" t="s">
-        <v>15</v>
+      <c r="A65" s="5">
+        <v>10</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C65">
-        <v>87.92</v>
+        <v>87.9</v>
       </c>
       <c r="D65">
-        <v>88.39</v>
+        <v>88.36</v>
       </c>
       <c r="E65">
-        <v>28.46</v>
+        <v>28.03</v>
       </c>
       <c r="F65">
         <v>98.71</v>
       </c>
       <c r="G65">
-        <v>12.08</v>
+        <v>12.1</v>
       </c>
       <c r="H65">
         <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="3" t="s">
-        <v>15</v>
+      <c r="A66" s="5">
+        <v>10</v>
       </c>
       <c r="B66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66">
+        <v>87.97</v>
+      </c>
+      <c r="D66">
+        <v>88.37</v>
+      </c>
+      <c r="E66">
+        <v>27.92</v>
+      </c>
+      <c r="F66">
+        <v>98.79</v>
+      </c>
+      <c r="G66">
+        <v>12.03</v>
+      </c>
+      <c r="H66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="5">
+        <v>10</v>
+      </c>
+      <c r="B67" t="s">
         <v>11</v>
-      </c>
-      <c r="C66">
-        <v>88.02</v>
-      </c>
-      <c r="D66">
-        <v>88.47</v>
-      </c>
-      <c r="E66">
-        <v>28.71</v>
-      </c>
-      <c r="F66">
-        <v>98.71</v>
-      </c>
-      <c r="G66">
-        <v>11.98</v>
-      </c>
-      <c r="H66">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B67" t="s">
-        <v>12</v>
       </c>
       <c r="C67">
         <v>89.09</v>
       </c>
       <c r="D67">
-        <v>90.04</v>
+        <v>90.03</v>
       </c>
       <c r="E67">
-        <v>40.21</v>
+        <v>40.06</v>
       </c>
       <c r="F67">
-        <v>97.95</v>
+        <v>97.98</v>
       </c>
       <c r="G67">
         <v>10.91</v>
@@ -2210,234 +2200,234 @@
       </c>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="3" t="s">
-        <v>15</v>
+      <c r="A68" s="5">
+        <v>10</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C68">
-        <v>89.21</v>
+        <v>89.19</v>
       </c>
       <c r="D68">
-        <v>90.14</v>
+        <v>90.13</v>
       </c>
       <c r="E68">
-        <v>40.9</v>
+        <v>41.02</v>
       </c>
       <c r="F68">
-        <v>97.97</v>
+        <v>97.98</v>
       </c>
       <c r="G68">
-        <v>10.79</v>
+        <v>10.81</v>
       </c>
       <c r="H68">
         <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="3" t="s">
-        <v>15</v>
+      <c r="A69" s="5">
+        <v>10</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C69">
-        <v>89.16</v>
+        <v>89.14</v>
       </c>
       <c r="D69">
-        <v>90.07</v>
+        <v>90.05</v>
       </c>
       <c r="E69">
-        <v>40.159999999999997</v>
+        <v>40.28</v>
       </c>
       <c r="F69">
-        <v>98</v>
+        <v>98.02</v>
       </c>
       <c r="G69">
-        <v>10.84</v>
+        <v>10.86</v>
       </c>
       <c r="H69">
         <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="3" t="s">
-        <v>15</v>
+      <c r="A70" s="5">
+        <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C70">
-        <v>89.11</v>
+        <v>89.04</v>
       </c>
       <c r="D70">
         <v>90.04</v>
       </c>
       <c r="E70">
-        <v>40.130000000000003</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="F70">
-        <v>97.97</v>
+        <v>97.88</v>
       </c>
       <c r="G70">
-        <v>10.89</v>
+        <v>10.96</v>
       </c>
       <c r="H70">
         <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="3" t="s">
-        <v>15</v>
+      <c r="A71" s="5">
+        <v>10</v>
       </c>
       <c r="B71" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71">
+        <v>89.17</v>
+      </c>
+      <c r="D71">
+        <v>90.13</v>
+      </c>
+      <c r="E71">
+        <v>40.520000000000003</v>
+      </c>
+      <c r="F71">
+        <v>97.95</v>
+      </c>
+      <c r="G71">
+        <v>10.83</v>
+      </c>
+      <c r="H71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="5">
+        <v>10</v>
+      </c>
+      <c r="B72" t="s">
         <v>12</v>
       </c>
-      <c r="C71">
-        <v>89.21</v>
-      </c>
-      <c r="D71">
-        <v>90.21</v>
-      </c>
-      <c r="E71">
-        <v>41.14</v>
-      </c>
-      <c r="F71">
-        <v>97.88</v>
-      </c>
-      <c r="G71">
-        <v>10.79</v>
-      </c>
-      <c r="H71">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B72" t="s">
-        <v>13</v>
-      </c>
       <c r="C72">
-        <v>73.06</v>
+        <v>73.290000000000006</v>
       </c>
       <c r="D72">
-        <v>83.74</v>
+        <v>83.84</v>
       </c>
       <c r="E72">
-        <v>9.1300000000000008</v>
+        <v>9.73</v>
       </c>
       <c r="F72">
-        <v>84.67</v>
+        <v>84.8</v>
       </c>
       <c r="G72">
-        <v>26.94</v>
+        <v>26.71</v>
       </c>
       <c r="H72">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="3" t="s">
-        <v>15</v>
+      <c r="A73" s="5">
+        <v>10</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C73">
-        <v>73.19</v>
+        <v>73.239999999999995</v>
       </c>
       <c r="D73">
-        <v>83.77</v>
+        <v>83.75</v>
       </c>
       <c r="E73">
-        <v>9.0399999999999991</v>
+        <v>9.08</v>
       </c>
       <c r="F73">
-        <v>84.79</v>
+        <v>84.85</v>
       </c>
       <c r="G73">
-        <v>26.81</v>
+        <v>26.76</v>
       </c>
       <c r="H73">
         <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="3" t="s">
-        <v>15</v>
+      <c r="A74" s="5">
+        <v>10</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C74">
-        <v>73.36</v>
+        <v>73.34</v>
       </c>
       <c r="D74">
-        <v>83.81</v>
+        <v>83.82</v>
       </c>
       <c r="E74">
-        <v>9.18</v>
+        <v>9.1300000000000008</v>
       </c>
       <c r="F74">
-        <v>84.95</v>
+        <v>84.93</v>
       </c>
       <c r="G74">
-        <v>26.64</v>
+        <v>26.66</v>
       </c>
       <c r="H74">
         <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="3" t="s">
-        <v>15</v>
+      <c r="A75" s="5">
+        <v>10</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C75">
-        <v>73.290000000000006</v>
+        <v>73.19</v>
       </c>
       <c r="D75">
-        <v>83.76</v>
+        <v>83.77</v>
       </c>
       <c r="E75">
-        <v>8.81</v>
+        <v>9.18</v>
       </c>
       <c r="F75">
-        <v>84.91</v>
+        <v>84.73</v>
       </c>
       <c r="G75">
-        <v>26.71</v>
+        <v>26.81</v>
       </c>
       <c r="H75">
         <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="3" t="s">
-        <v>15</v>
+      <c r="A76" s="5">
+        <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C76">
-        <v>73.11</v>
+        <v>73.19</v>
       </c>
       <c r="D76">
-        <v>83.66</v>
+        <v>83.77</v>
       </c>
       <c r="E76">
-        <v>8.1199999999999992</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="F76">
-        <v>84.8</v>
+        <v>84.73</v>
       </c>
       <c r="G76">
-        <v>26.89</v>
+        <v>26.81</v>
       </c>
       <c r="H76">
         <v>5</v>
@@ -2446,7 +2436,7 @@
   </sheetData>
   <autoFilter ref="A1:H76" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H76">
-      <sortCondition ref="A1"/>
+      <sortCondition ref="A1:A76"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2457,8 +2447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -2501,67 +2491,73 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
+      <c r="A2" s="3">
+        <f>main!A2</f>
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="str">
+        <f>main!B2</f>
+        <v>Extra-trees</v>
       </c>
       <c r="C2">
         <f>AVERAGE(main!C2:C6)</f>
-        <v>89.122</v>
+        <v>88.894000000000005</v>
       </c>
       <c r="D2">
         <f>AVERAGE(main!D2:D6)</f>
-        <v>91.034000000000006</v>
+        <v>90.936000000000007</v>
       </c>
       <c r="E2">
         <f>AVERAGE(main!E2:E6)</f>
-        <v>47.464000000000006</v>
+        <v>46.75</v>
       </c>
       <c r="F2">
         <f>AVERAGE(main!F2:F6)</f>
-        <v>96.671999999999997</v>
+        <v>96.51</v>
       </c>
       <c r="G2">
         <f>AVERAGE(main!G2:G6)</f>
-        <v>10.878</v>
+        <v>11.106</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
+      <c r="A3" s="3">
+        <f>main!A7</f>
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="str">
+        <f>main!B7</f>
+        <v>SVM kernel linear</v>
       </c>
       <c r="C3">
         <f>AVERAGE(main!C7:C11)</f>
-        <v>88.23</v>
+        <v>88.246000000000009</v>
       </c>
       <c r="D3">
         <f>AVERAGE(main!D7:D11)</f>
-        <v>89.003999999999991</v>
+        <v>89.027999999999992</v>
       </c>
       <c r="E3">
         <f>AVERAGE(main!E7:E11)</f>
-        <v>32.828000000000003</v>
+        <v>33.08</v>
       </c>
       <c r="F3">
         <f>AVERAGE(main!F7:F11)</f>
-        <v>98.24799999999999</v>
+        <v>98.227999999999994</v>
       </c>
       <c r="G3">
         <f>AVERAGE(main!G7:G11)</f>
-        <v>11.77</v>
+        <v>11.754000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
+      <c r="A4" s="3">
+        <f>main!A12</f>
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="str">
+        <f>main!B12</f>
+        <v>SVM kernel poly</v>
       </c>
       <c r="C4">
         <f>AVERAGE(main!C12:C16)</f>
@@ -2569,15 +2565,15 @@
       </c>
       <c r="D4">
         <f>AVERAGE(main!D12:D16)</f>
-        <v>88.362000000000009</v>
+        <v>88.388000000000005</v>
       </c>
       <c r="E4">
         <f>AVERAGE(main!E12:E16)</f>
-        <v>28.060000000000002</v>
+        <v>28.297999999999995</v>
       </c>
       <c r="F4">
         <f>AVERAGE(main!F12:F16)</f>
-        <v>98.744</v>
+        <v>98.71</v>
       </c>
       <c r="G4">
         <f>AVERAGE(main!G12:G16)</f>
@@ -2585,107 +2581,115 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
+      <c r="A5" s="3">
+        <f>main!A17</f>
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="str">
+        <f>main!B17</f>
+        <v>SVM kernel rbf</v>
       </c>
       <c r="C5">
         <f>AVERAGE(main!C17:C21)</f>
-        <v>89.126000000000005</v>
+        <v>89.156000000000006</v>
       </c>
       <c r="D5">
         <f>AVERAGE(main!D17:D21)</f>
-        <v>90.075999999999993</v>
+        <v>90.070000000000007</v>
       </c>
       <c r="E5">
         <f>AVERAGE(main!E17:E21)</f>
-        <v>40.436000000000007</v>
+        <v>40.317999999999998</v>
       </c>
       <c r="F5">
         <f>AVERAGE(main!F17:F21)</f>
-        <v>97.962000000000003</v>
+        <v>98</v>
       </c>
       <c r="G5">
         <f>AVERAGE(main!G17:G21)</f>
-        <v>10.873999999999999</v>
+        <v>10.844000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
+      <c r="A6" s="3">
+        <f>main!A22</f>
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="str">
+        <f>main!B22</f>
+        <v>SVM kernel sigmoid</v>
       </c>
       <c r="C6">
         <f>AVERAGE(main!C22:C26)</f>
-        <v>73.25</v>
+        <v>73.299999999999983</v>
       </c>
       <c r="D6">
         <f>AVERAGE(main!D22:D26)</f>
-        <v>83.789999999999992</v>
+        <v>83.768000000000001</v>
       </c>
       <c r="E6">
         <f>AVERAGE(main!E22:E26)</f>
-        <v>9.2800000000000011</v>
+        <v>8.9619999999999997</v>
       </c>
       <c r="F6">
         <f>AVERAGE(main!F22:F26)</f>
-        <v>84.808000000000007</v>
+        <v>84.93</v>
       </c>
       <c r="G6">
         <f>AVERAGE(main!G22:G26)</f>
-        <v>26.75</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
+      <c r="A7" s="3">
+        <f>main!A27</f>
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="str">
+        <f>main!B27</f>
+        <v>Extra-trees</v>
       </c>
       <c r="C7">
         <f>AVERAGE(main!C27:C31)</f>
-        <v>88.894000000000005</v>
+        <v>89.095999999999989</v>
       </c>
       <c r="D7">
         <f>AVERAGE(main!D27:D31)</f>
-        <v>90.936000000000007</v>
+        <v>91.003999999999991</v>
       </c>
       <c r="E7">
         <f>AVERAGE(main!E27:E31)</f>
-        <v>46.75</v>
+        <v>47.186</v>
       </c>
       <c r="F7">
         <f>AVERAGE(main!F27:F31)</f>
-        <v>96.51</v>
+        <v>96.691999999999993</v>
       </c>
       <c r="G7">
         <f>AVERAGE(main!G27:G31)</f>
-        <v>11.106</v>
+        <v>10.904</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
+      <c r="A8" s="3">
+        <f>main!A32</f>
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="str">
+        <f>main!B32</f>
+        <v>SVM kernel linear</v>
       </c>
       <c r="C8">
         <f>AVERAGE(main!C32:C36)</f>
-        <v>88.246000000000009</v>
+        <v>88.254000000000005</v>
       </c>
       <c r="D8">
         <f>AVERAGE(main!D32:D36)</f>
-        <v>89.027999999999992</v>
+        <v>89.035999999999987</v>
       </c>
       <c r="E8">
         <f>AVERAGE(main!E32:E36)</f>
-        <v>33.08</v>
+        <v>33.070000000000007</v>
       </c>
       <c r="F8">
         <f>AVERAGE(main!F32:F36)</f>
@@ -2693,43 +2697,47 @@
       </c>
       <c r="G8">
         <f>AVERAGE(main!G32:G36)</f>
-        <v>11.754000000000001</v>
+        <v>11.746</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
+      <c r="A9" s="3">
+        <f>main!A37</f>
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="str">
+        <f>main!B37</f>
+        <v>SVM kernel poly</v>
       </c>
       <c r="C9">
         <f>AVERAGE(main!C37:C41)</f>
-        <v>87.921999999999997</v>
+        <v>87.947999999999993</v>
       </c>
       <c r="D9">
         <f>AVERAGE(main!D37:D41)</f>
-        <v>88.388000000000005</v>
+        <v>88.402000000000001</v>
       </c>
       <c r="E9">
         <f>AVERAGE(main!E37:E41)</f>
-        <v>28.297999999999995</v>
+        <v>28.378000000000004</v>
       </c>
       <c r="F9">
         <f>AVERAGE(main!F37:F41)</f>
-        <v>98.71</v>
+        <v>98.71599999999998</v>
       </c>
       <c r="G9">
         <f>AVERAGE(main!G37:G41)</f>
-        <v>12.077999999999999</v>
+        <v>12.052000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
+      <c r="A10" s="3">
+        <f>main!A42</f>
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="str">
+        <f>main!B42</f>
+        <v>SVM kernel rbf</v>
       </c>
       <c r="C10">
         <f>AVERAGE(main!C42:C46)</f>
@@ -2737,198 +2745,3508 @@
       </c>
       <c r="D10">
         <f>AVERAGE(main!D42:D46)</f>
-        <v>90.070000000000007</v>
+        <v>90.1</v>
       </c>
       <c r="E10">
         <f>AVERAGE(main!E42:E46)</f>
-        <v>40.317999999999998</v>
+        <v>40.508000000000003</v>
       </c>
       <c r="F10">
         <f>AVERAGE(main!F42:F46)</f>
-        <v>98</v>
+        <v>97.953999999999994</v>
       </c>
       <c r="G10">
         <f>AVERAGE(main!G42:G46)</f>
-        <v>10.844000000000001</v>
+        <v>10.843999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
+      <c r="A11" s="3">
+        <f>main!A47</f>
+        <v>5</v>
+      </c>
+      <c r="B11" s="3" t="str">
+        <f>main!B47</f>
+        <v>SVM kernel sigmoid</v>
       </c>
       <c r="C11">
         <f>AVERAGE(main!C47:C51)</f>
-        <v>73.299999999999983</v>
+        <v>73.202000000000012</v>
       </c>
       <c r="D11">
         <f>AVERAGE(main!D47:D51)</f>
-        <v>83.768000000000001</v>
+        <v>83.748000000000005</v>
       </c>
       <c r="E11">
         <f>AVERAGE(main!E47:E51)</f>
-        <v>8.9619999999999997</v>
+        <v>8.8559999999999999</v>
       </c>
       <c r="F11">
         <f>AVERAGE(main!F47:F51)</f>
-        <v>84.93</v>
+        <v>84.824000000000012</v>
       </c>
       <c r="G11">
         <f>AVERAGE(main!G47:G51)</f>
-        <v>26.7</v>
+        <v>26.798000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
+      <c r="A12" s="3">
+        <f>main!A52</f>
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="str">
+        <f>main!B52</f>
+        <v>Extra-trees</v>
       </c>
       <c r="C12">
         <f>AVERAGE(main!C52:C56)</f>
-        <v>89.095999999999989</v>
+        <v>89.122</v>
       </c>
       <c r="D12">
         <f>AVERAGE(main!D52:D56)</f>
-        <v>91.003999999999991</v>
+        <v>91.034000000000006</v>
       </c>
       <c r="E12">
         <f>AVERAGE(main!E52:E56)</f>
-        <v>47.186</v>
+        <v>47.464000000000006</v>
       </c>
       <c r="F12">
         <f>AVERAGE(main!F52:F56)</f>
-        <v>96.691999999999993</v>
+        <v>96.671999999999997</v>
       </c>
       <c r="G12">
         <f>AVERAGE(main!G52:G56)</f>
-        <v>10.904</v>
+        <v>10.878</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
+      <c r="A13" s="3">
+        <f>main!A57</f>
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="str">
+        <f>main!B57</f>
+        <v>SVM kernel linear</v>
       </c>
       <c r="C13">
         <f>AVERAGE(main!C57:C61)</f>
-        <v>88.254000000000005</v>
+        <v>88.23</v>
       </c>
       <c r="D13">
         <f>AVERAGE(main!D57:D61)</f>
-        <v>89.035999999999987</v>
+        <v>89.003999999999991</v>
       </c>
       <c r="E13">
         <f>AVERAGE(main!E57:E61)</f>
-        <v>33.070000000000007</v>
+        <v>32.828000000000003</v>
       </c>
       <c r="F13">
         <f>AVERAGE(main!F57:F61)</f>
-        <v>98.227999999999994</v>
+        <v>98.24799999999999</v>
       </c>
       <c r="G13">
         <f>AVERAGE(main!G57:G61)</f>
-        <v>11.746</v>
+        <v>11.77</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
+      <c r="A14" s="3">
+        <f>main!A62</f>
+        <v>10</v>
+      </c>
+      <c r="B14" s="3" t="str">
+        <f>main!B62</f>
+        <v>SVM kernel poly</v>
       </c>
       <c r="C14">
         <f>AVERAGE(main!C62:C66)</f>
-        <v>87.947999999999993</v>
+        <v>87.921999999999997</v>
       </c>
       <c r="D14">
         <f>AVERAGE(main!D62:D66)</f>
-        <v>88.402000000000001</v>
+        <v>88.362000000000009</v>
       </c>
       <c r="E14">
         <f>AVERAGE(main!E62:E66)</f>
-        <v>28.378000000000004</v>
+        <v>28.060000000000002</v>
       </c>
       <c r="F14">
         <f>AVERAGE(main!F62:F66)</f>
-        <v>98.71599999999998</v>
+        <v>98.744</v>
       </c>
       <c r="G14">
         <f>AVERAGE(main!G62:G66)</f>
-        <v>12.052000000000001</v>
+        <v>12.077999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
+      <c r="A15" s="3">
+        <f>main!A67</f>
+        <v>10</v>
+      </c>
+      <c r="B15" s="3" t="str">
+        <f>main!B7</f>
+        <v>SVM kernel linear</v>
       </c>
       <c r="C15">
         <f>AVERAGE(main!C67:C71)</f>
-        <v>89.156000000000006</v>
+        <v>89.126000000000005</v>
       </c>
       <c r="D15">
         <f>AVERAGE(main!D67:D71)</f>
-        <v>90.1</v>
+        <v>90.075999999999993</v>
       </c>
       <c r="E15">
         <f>AVERAGE(main!E67:E71)</f>
-        <v>40.508000000000003</v>
+        <v>40.436000000000007</v>
       </c>
       <c r="F15">
         <f>AVERAGE(main!F67:F71)</f>
-        <v>97.953999999999994</v>
+        <v>97.962000000000003</v>
       </c>
       <c r="G15">
         <f>AVERAGE(main!G67:G71)</f>
-        <v>10.843999999999999</v>
+        <v>10.873999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
+      <c r="A16" s="3">
+        <f>main!A72</f>
+        <v>10</v>
+      </c>
+      <c r="B16" s="3" t="str">
+        <f>main!B72</f>
+        <v>SVM kernel sigmoid</v>
       </c>
       <c r="C16">
         <f>AVERAGE(main!C72:C76)</f>
-        <v>73.202000000000012</v>
+        <v>73.25</v>
       </c>
       <c r="D16">
         <f>AVERAGE(main!D72:D76)</f>
-        <v>83.748000000000005</v>
+        <v>83.789999999999992</v>
       </c>
       <c r="E16">
         <f>AVERAGE(main!E72:E76)</f>
-        <v>8.8559999999999999</v>
+        <v>9.2800000000000011</v>
       </c>
       <c r="F16">
         <f>AVERAGE(main!F72:F76)</f>
-        <v>84.824000000000012</v>
+        <v>84.808000000000007</v>
       </c>
       <c r="G16">
         <f>AVERAGE(main!G72:G76)</f>
-        <v>26.798000000000002</v>
+        <v>26.75</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G16" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G16">
-      <sortCondition descending="1" ref="C1"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
-    <ignoredError sqref="C2:G16" formulaRange="1"/>
+    <ignoredError sqref="C3:G10 C12:G16 C11:E11 F11:G11 D2:G2" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B933AAEC-236B-4D22-AF27-850391C1FB4B}">
+  <dimension ref="A1:M76"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J78" sqref="J78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="str">
+        <f>main!A1</f>
+        <v>Fold</v>
+      </c>
+      <c r="B1" t="str">
+        <f>main!B1</f>
+        <v>Algoritma</v>
+      </c>
+      <c r="C1" t="str">
+        <f>main!C1</f>
+        <v>Accuracy</v>
+      </c>
+      <c r="D1" t="str">
+        <f>main!D1</f>
+        <v>Precision</v>
+      </c>
+      <c r="E1" t="str">
+        <f>main!E1</f>
+        <v>Specificity</v>
+      </c>
+      <c r="F1" t="str">
+        <f>main!F1</f>
+        <v>Recall</v>
+      </c>
+      <c r="G1" t="str">
+        <f>main!G1</f>
+        <v>Error</v>
+      </c>
+      <c r="H1" t="str">
+        <f>main!H1</f>
+        <v>Iterasi</v>
+      </c>
+      <c r="I1" t="str">
+        <f>average!C1</f>
+        <v>mean Accuracy</v>
+      </c>
+      <c r="J1" t="str">
+        <f>average!D1</f>
+        <v>mean Precision</v>
+      </c>
+      <c r="K1" t="str">
+        <f>average!E1</f>
+        <v>mean Specificity</v>
+      </c>
+      <c r="L1" t="str">
+        <f>average!F1</f>
+        <v>mean Recall</v>
+      </c>
+      <c r="M1" t="str">
+        <f>average!G1</f>
+        <v>mean Error</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2">
+        <f>main!A2</f>
+        <v>4</v>
+      </c>
+      <c r="B2" t="str">
+        <f>main!B2</f>
+        <v>Extra-trees</v>
+      </c>
+      <c r="C2">
+        <f>main!C2</f>
+        <v>89.02</v>
+      </c>
+      <c r="D2">
+        <f>main!D2</f>
+        <v>90.81</v>
+      </c>
+      <c r="E2">
+        <f>main!E2</f>
+        <v>45.75</v>
+      </c>
+      <c r="F2">
+        <f>main!F2</f>
+        <v>96.83</v>
+      </c>
+      <c r="G2">
+        <f>main!G2</f>
+        <v>10.98</v>
+      </c>
+      <c r="H2">
+        <f>main!H2</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="4">
+        <f>average!C2</f>
+        <v>88.894000000000005</v>
+      </c>
+      <c r="J2" s="4">
+        <f>average!D2</f>
+        <v>90.936000000000007</v>
+      </c>
+      <c r="K2" s="4">
+        <f>average!E2</f>
+        <v>46.75</v>
+      </c>
+      <c r="L2" s="4">
+        <f>average!F2</f>
+        <v>96.51</v>
+      </c>
+      <c r="M2" s="4">
+        <f>average!G2</f>
+        <v>11.106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3">
+        <f>main!A3</f>
+        <v>4</v>
+      </c>
+      <c r="B3" t="str">
+        <f>main!B3</f>
+        <v>Extra-trees</v>
+      </c>
+      <c r="C3">
+        <f>main!C3</f>
+        <v>88.87</v>
+      </c>
+      <c r="D3">
+        <f>main!D3</f>
+        <v>90.93</v>
+      </c>
+      <c r="E3">
+        <f>main!E3</f>
+        <v>46.75</v>
+      </c>
+      <c r="F3">
+        <f>main!F3</f>
+        <v>96.48</v>
+      </c>
+      <c r="G3">
+        <f>main!G3</f>
+        <v>11.13</v>
+      </c>
+      <c r="H3">
+        <f>main!H3</f>
+        <v>2</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <f>main!A4</f>
+        <v>4</v>
+      </c>
+      <c r="B4" t="str">
+        <f>main!B4</f>
+        <v>Extra-trees</v>
+      </c>
+      <c r="C4">
+        <f>main!C4</f>
+        <v>88.94</v>
+      </c>
+      <c r="D4">
+        <f>main!D4</f>
+        <v>90.96</v>
+      </c>
+      <c r="E4">
+        <f>main!E4</f>
+        <v>46.87</v>
+      </c>
+      <c r="F4">
+        <f>main!F4</f>
+        <v>96.54</v>
+      </c>
+      <c r="G4">
+        <f>main!G4</f>
+        <v>11.06</v>
+      </c>
+      <c r="H4">
+        <f>main!H4</f>
+        <v>3</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <f>main!A5</f>
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <f>main!B5</f>
+        <v>Extra-trees</v>
+      </c>
+      <c r="C5">
+        <f>main!C5</f>
+        <v>88.3</v>
+      </c>
+      <c r="D5">
+        <f>main!D5</f>
+        <v>90.74</v>
+      </c>
+      <c r="E5">
+        <f>main!E5</f>
+        <v>45.88</v>
+      </c>
+      <c r="F5">
+        <f>main!F5</f>
+        <v>95.99</v>
+      </c>
+      <c r="G5">
+        <f>main!G5</f>
+        <v>11.7</v>
+      </c>
+      <c r="H5">
+        <f>main!H5</f>
+        <v>4</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6">
+        <f>main!A6</f>
+        <v>4</v>
+      </c>
+      <c r="B6" t="str">
+        <f>main!B6</f>
+        <v>Extra-trees</v>
+      </c>
+      <c r="C6">
+        <f>main!C6</f>
+        <v>89.34</v>
+      </c>
+      <c r="D6">
+        <f>main!D6</f>
+        <v>91.24</v>
+      </c>
+      <c r="E6">
+        <f>main!E6</f>
+        <v>48.5</v>
+      </c>
+      <c r="F6">
+        <f>main!F6</f>
+        <v>96.71</v>
+      </c>
+      <c r="G6">
+        <f>main!G6</f>
+        <v>10.66</v>
+      </c>
+      <c r="H6">
+        <f>main!H6</f>
+        <v>5</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <f>main!A7</f>
+        <v>4</v>
+      </c>
+      <c r="B7" t="str">
+        <f>main!B7</f>
+        <v>SVM kernel linear</v>
+      </c>
+      <c r="C7">
+        <f>main!C7</f>
+        <v>88.25</v>
+      </c>
+      <c r="D7">
+        <f>main!D7</f>
+        <v>89</v>
+      </c>
+      <c r="E7">
+        <f>main!E7</f>
+        <v>32.83</v>
+      </c>
+      <c r="F7">
+        <f>main!F7</f>
+        <v>98.27</v>
+      </c>
+      <c r="G7">
+        <f>main!G7</f>
+        <v>11.75</v>
+      </c>
+      <c r="H7">
+        <f>main!H7</f>
+        <v>1</v>
+      </c>
+      <c r="I7" s="4">
+        <f>average!C3</f>
+        <v>88.246000000000009</v>
+      </c>
+      <c r="J7" s="4">
+        <f>average!D3</f>
+        <v>89.027999999999992</v>
+      </c>
+      <c r="K7" s="4">
+        <f>average!E3</f>
+        <v>33.08</v>
+      </c>
+      <c r="L7" s="4">
+        <f>average!F3</f>
+        <v>98.227999999999994</v>
+      </c>
+      <c r="M7" s="4">
+        <f>average!G3</f>
+        <v>11.754000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8">
+        <f>main!A8</f>
+        <v>4</v>
+      </c>
+      <c r="B8" t="str">
+        <f>main!B8</f>
+        <v>SVM kernel linear</v>
+      </c>
+      <c r="C8">
+        <f>main!C8</f>
+        <v>88.32</v>
+      </c>
+      <c r="D8">
+        <f>main!D8</f>
+        <v>89.11</v>
+      </c>
+      <c r="E8">
+        <f>main!E8</f>
+        <v>33.729999999999997</v>
+      </c>
+      <c r="F8">
+        <f>main!F8</f>
+        <v>98.21</v>
+      </c>
+      <c r="G8">
+        <f>main!G8</f>
+        <v>11.68</v>
+      </c>
+      <c r="H8">
+        <f>main!H8</f>
+        <v>2</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9">
+        <f>main!A9</f>
+        <v>4</v>
+      </c>
+      <c r="B9" t="str">
+        <f>main!B9</f>
+        <v>SVM kernel linear</v>
+      </c>
+      <c r="C9">
+        <f>main!C9</f>
+        <v>88.39</v>
+      </c>
+      <c r="D9">
+        <f>main!D9</f>
+        <v>89.16</v>
+      </c>
+      <c r="E9">
+        <f>main!E9</f>
+        <v>34.04</v>
+      </c>
+      <c r="F9">
+        <f>main!F9</f>
+        <v>98.24</v>
+      </c>
+      <c r="G9">
+        <f>main!G9</f>
+        <v>11.61</v>
+      </c>
+      <c r="H9">
+        <f>main!H9</f>
+        <v>3</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10">
+        <f>main!A10</f>
+        <v>4</v>
+      </c>
+      <c r="B10" t="str">
+        <f>main!B10</f>
+        <v>SVM kernel linear</v>
+      </c>
+      <c r="C10">
+        <f>main!C10</f>
+        <v>88.12</v>
+      </c>
+      <c r="D10">
+        <f>main!D10</f>
+        <v>88.88</v>
+      </c>
+      <c r="E10">
+        <f>main!E10</f>
+        <v>32.03</v>
+      </c>
+      <c r="F10">
+        <f>main!F10</f>
+        <v>98.27</v>
+      </c>
+      <c r="G10">
+        <f>main!G10</f>
+        <v>11.88</v>
+      </c>
+      <c r="H10">
+        <f>main!H10</f>
+        <v>4</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11">
+        <f>main!A11</f>
+        <v>4</v>
+      </c>
+      <c r="B11" t="str">
+        <f>main!B11</f>
+        <v>SVM kernel linear</v>
+      </c>
+      <c r="C11">
+        <f>main!C11</f>
+        <v>88.15</v>
+      </c>
+      <c r="D11">
+        <f>main!D11</f>
+        <v>88.99</v>
+      </c>
+      <c r="E11">
+        <f>main!E11</f>
+        <v>32.770000000000003</v>
+      </c>
+      <c r="F11">
+        <f>main!F11</f>
+        <v>98.15</v>
+      </c>
+      <c r="G11">
+        <f>main!G11</f>
+        <v>11.85</v>
+      </c>
+      <c r="H11">
+        <f>main!H11</f>
+        <v>5</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12">
+        <f>main!A12</f>
+        <v>4</v>
+      </c>
+      <c r="B12" t="str">
+        <f>main!B12</f>
+        <v>SVM kernel poly</v>
+      </c>
+      <c r="C12">
+        <f>main!C12</f>
+        <v>87.97</v>
+      </c>
+      <c r="D12">
+        <f>main!D12</f>
+        <v>88.41</v>
+      </c>
+      <c r="E12">
+        <f>main!E12</f>
+        <v>28.43</v>
+      </c>
+      <c r="F12">
+        <f>main!F12</f>
+        <v>98.74</v>
+      </c>
+      <c r="G12">
+        <f>main!G12</f>
+        <v>12.03</v>
+      </c>
+      <c r="H12">
+        <f>main!H12</f>
+        <v>1</v>
+      </c>
+      <c r="I12" s="4">
+        <f>average!C4</f>
+        <v>87.921999999999997</v>
+      </c>
+      <c r="J12" s="4">
+        <f>average!D4</f>
+        <v>88.388000000000005</v>
+      </c>
+      <c r="K12" s="4">
+        <f>average!E4</f>
+        <v>28.297999999999995</v>
+      </c>
+      <c r="L12" s="4">
+        <f>average!F4</f>
+        <v>98.71</v>
+      </c>
+      <c r="M12" s="4">
+        <f>average!G4</f>
+        <v>12.077999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13">
+        <f>main!A13</f>
+        <v>4</v>
+      </c>
+      <c r="B13" t="str">
+        <f>main!B13</f>
+        <v>SVM kernel poly</v>
+      </c>
+      <c r="C13">
+        <f>main!C13</f>
+        <v>87.85</v>
+      </c>
+      <c r="D13">
+        <f>main!D13</f>
+        <v>88.33</v>
+      </c>
+      <c r="E13">
+        <f>main!E13</f>
+        <v>27.9</v>
+      </c>
+      <c r="F13">
+        <f>main!F13</f>
+        <v>98.71</v>
+      </c>
+      <c r="G13">
+        <f>main!G13</f>
+        <v>12.15</v>
+      </c>
+      <c r="H13">
+        <f>main!H13</f>
+        <v>2</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14">
+        <f>main!A14</f>
+        <v>4</v>
+      </c>
+      <c r="B14" t="str">
+        <f>main!B14</f>
+        <v>SVM kernel poly</v>
+      </c>
+      <c r="C14">
+        <f>main!C14</f>
+        <v>87.92</v>
+      </c>
+      <c r="D14">
+        <f>main!D14</f>
+        <v>88.4</v>
+      </c>
+      <c r="E14">
+        <f>main!E14</f>
+        <v>28.4</v>
+      </c>
+      <c r="F14">
+        <f>main!F14</f>
+        <v>98.69</v>
+      </c>
+      <c r="G14">
+        <f>main!G14</f>
+        <v>12.08</v>
+      </c>
+      <c r="H14">
+        <f>main!H14</f>
+        <v>3</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15">
+        <f>main!A15</f>
+        <v>4</v>
+      </c>
+      <c r="B15" t="str">
+        <f>main!B15</f>
+        <v>SVM kernel poly</v>
+      </c>
+      <c r="C15">
+        <f>main!C15</f>
+        <v>88.02</v>
+      </c>
+      <c r="D15">
+        <f>main!D15</f>
+        <v>88.48</v>
+      </c>
+      <c r="E15">
+        <f>main!E15</f>
+        <v>29</v>
+      </c>
+      <c r="F15">
+        <f>main!F15</f>
+        <v>98.7</v>
+      </c>
+      <c r="G15">
+        <f>main!G15</f>
+        <v>11.98</v>
+      </c>
+      <c r="H15">
+        <f>main!H15</f>
+        <v>4</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
+        <f>main!A16</f>
+        <v>4</v>
+      </c>
+      <c r="B16" t="str">
+        <f>main!B16</f>
+        <v>SVM kernel poly</v>
+      </c>
+      <c r="C16">
+        <f>main!C16</f>
+        <v>87.85</v>
+      </c>
+      <c r="D16">
+        <f>main!D16</f>
+        <v>88.32</v>
+      </c>
+      <c r="E16">
+        <f>main!E16</f>
+        <v>27.76</v>
+      </c>
+      <c r="F16">
+        <f>main!F16</f>
+        <v>98.71</v>
+      </c>
+      <c r="G16">
+        <f>main!G16</f>
+        <v>12.15</v>
+      </c>
+      <c r="H16">
+        <f>main!H16</f>
+        <v>5</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17">
+        <f>main!A17</f>
+        <v>4</v>
+      </c>
+      <c r="B17" t="str">
+        <f>main!B17</f>
+        <v>SVM kernel rbf</v>
+      </c>
+      <c r="C17">
+        <f>main!C17</f>
+        <v>89.09</v>
+      </c>
+      <c r="D17">
+        <f>main!D17</f>
+        <v>90.04</v>
+      </c>
+      <c r="E17">
+        <f>main!E17</f>
+        <v>40.090000000000003</v>
+      </c>
+      <c r="F17">
+        <f>main!F17</f>
+        <v>97.94</v>
+      </c>
+      <c r="G17">
+        <f>main!G17</f>
+        <v>10.91</v>
+      </c>
+      <c r="H17">
+        <f>main!H17</f>
+        <v>1</v>
+      </c>
+      <c r="I17" s="4">
+        <f>average!C5</f>
+        <v>89.156000000000006</v>
+      </c>
+      <c r="J17" s="4">
+        <f>average!D5</f>
+        <v>90.070000000000007</v>
+      </c>
+      <c r="K17" s="4">
+        <f>average!E5</f>
+        <v>40.317999999999998</v>
+      </c>
+      <c r="L17" s="4">
+        <f>average!F5</f>
+        <v>98</v>
+      </c>
+      <c r="M17" s="4">
+        <f>average!G5</f>
+        <v>10.844000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18">
+        <f>main!A18</f>
+        <v>4</v>
+      </c>
+      <c r="B18" t="str">
+        <f>main!B18</f>
+        <v>SVM kernel rbf</v>
+      </c>
+      <c r="C18">
+        <f>main!C18</f>
+        <v>89.02</v>
+      </c>
+      <c r="D18">
+        <f>main!D18</f>
+        <v>90</v>
+      </c>
+      <c r="E18">
+        <f>main!E18</f>
+        <v>39.950000000000003</v>
+      </c>
+      <c r="F18">
+        <f>main!F18</f>
+        <v>97.92</v>
+      </c>
+      <c r="G18">
+        <f>main!G18</f>
+        <v>10.98</v>
+      </c>
+      <c r="H18">
+        <f>main!H18</f>
+        <v>2</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19">
+        <f>main!A19</f>
+        <v>4</v>
+      </c>
+      <c r="B19" t="str">
+        <f>main!B19</f>
+        <v>SVM kernel rbf</v>
+      </c>
+      <c r="C19">
+        <f>main!C19</f>
+        <v>89.26</v>
+      </c>
+      <c r="D19">
+        <f>main!D19</f>
+        <v>90.06</v>
+      </c>
+      <c r="E19">
+        <f>main!E19</f>
+        <v>40.11</v>
+      </c>
+      <c r="F19">
+        <f>main!F19</f>
+        <v>98.15</v>
+      </c>
+      <c r="G19">
+        <f>main!G19</f>
+        <v>10.74</v>
+      </c>
+      <c r="H19">
+        <f>main!H19</f>
+        <v>3</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20">
+        <f>main!A20</f>
+        <v>4</v>
+      </c>
+      <c r="B20" t="str">
+        <f>main!B20</f>
+        <v>SVM kernel rbf</v>
+      </c>
+      <c r="C20">
+        <f>main!C20</f>
+        <v>89.29</v>
+      </c>
+      <c r="D20">
+        <f>main!D20</f>
+        <v>90.2</v>
+      </c>
+      <c r="E20">
+        <f>main!E20</f>
+        <v>41.25</v>
+      </c>
+      <c r="F20">
+        <f>main!F20</f>
+        <v>98.01</v>
+      </c>
+      <c r="G20">
+        <f>main!G20</f>
+        <v>10.71</v>
+      </c>
+      <c r="H20">
+        <f>main!H20</f>
+        <v>4</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21">
+        <f>main!A21</f>
+        <v>4</v>
+      </c>
+      <c r="B21" t="str">
+        <f>main!B21</f>
+        <v>SVM kernel rbf</v>
+      </c>
+      <c r="C21">
+        <f>main!C21</f>
+        <v>89.12</v>
+      </c>
+      <c r="D21">
+        <f>main!D21</f>
+        <v>90.05</v>
+      </c>
+      <c r="E21">
+        <f>main!E21</f>
+        <v>40.19</v>
+      </c>
+      <c r="F21">
+        <f>main!F21</f>
+        <v>97.98</v>
+      </c>
+      <c r="G21">
+        <f>main!G21</f>
+        <v>10.88</v>
+      </c>
+      <c r="H21">
+        <f>main!H21</f>
+        <v>5</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22">
+        <f>main!A22</f>
+        <v>4</v>
+      </c>
+      <c r="B22" t="str">
+        <f>main!B22</f>
+        <v>SVM kernel sigmoid</v>
+      </c>
+      <c r="C22">
+        <f>main!C22</f>
+        <v>73.239999999999995</v>
+      </c>
+      <c r="D22">
+        <f>main!D22</f>
+        <v>83.74</v>
+      </c>
+      <c r="E22">
+        <f>main!E22</f>
+        <v>8.76</v>
+      </c>
+      <c r="F22">
+        <f>main!F22</f>
+        <v>84.89</v>
+      </c>
+      <c r="G22">
+        <f>main!G22</f>
+        <v>26.76</v>
+      </c>
+      <c r="H22">
+        <f>main!H22</f>
+        <v>1</v>
+      </c>
+      <c r="I22" s="4">
+        <f>average!C6</f>
+        <v>73.299999999999983</v>
+      </c>
+      <c r="J22" s="4">
+        <f>average!D6</f>
+        <v>83.768000000000001</v>
+      </c>
+      <c r="K22" s="4">
+        <f>average!E6</f>
+        <v>8.9619999999999997</v>
+      </c>
+      <c r="L22" s="4">
+        <f>average!F6</f>
+        <v>84.93</v>
+      </c>
+      <c r="M22" s="4">
+        <f>average!G6</f>
+        <v>26.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23">
+        <f>main!A23</f>
+        <v>4</v>
+      </c>
+      <c r="B23" t="str">
+        <f>main!B23</f>
+        <v>SVM kernel sigmoid</v>
+      </c>
+      <c r="C23">
+        <f>main!C23</f>
+        <v>73.41</v>
+      </c>
+      <c r="D23">
+        <f>main!D23</f>
+        <v>83.8</v>
+      </c>
+      <c r="E23">
+        <f>main!E23</f>
+        <v>9.01</v>
+      </c>
+      <c r="F23">
+        <f>main!F23</f>
+        <v>85.03</v>
+      </c>
+      <c r="G23">
+        <f>main!G23</f>
+        <v>26.59</v>
+      </c>
+      <c r="H23">
+        <f>main!H23</f>
+        <v>2</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24">
+        <f>main!A24</f>
+        <v>4</v>
+      </c>
+      <c r="B24" t="str">
+        <f>main!B24</f>
+        <v>SVM kernel sigmoid</v>
+      </c>
+      <c r="C24">
+        <f>main!C24</f>
+        <v>73.209999999999994</v>
+      </c>
+      <c r="D24">
+        <f>main!D24</f>
+        <v>83.72</v>
+      </c>
+      <c r="E24">
+        <f>main!E24</f>
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="F24">
+        <f>main!F24</f>
+        <v>84.86</v>
+      </c>
+      <c r="G24">
+        <f>main!G24</f>
+        <v>26.79</v>
+      </c>
+      <c r="H24">
+        <f>main!H24</f>
+        <v>3</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25">
+        <f>main!A25</f>
+        <v>4</v>
+      </c>
+      <c r="B25" t="str">
+        <f>main!B25</f>
+        <v>SVM kernel sigmoid</v>
+      </c>
+      <c r="C25">
+        <f>main!C25</f>
+        <v>73.38</v>
+      </c>
+      <c r="D25">
+        <f>main!D25</f>
+        <v>83.8</v>
+      </c>
+      <c r="E25">
+        <f>main!E25</f>
+        <v>9.07</v>
+      </c>
+      <c r="F25">
+        <f>main!F25</f>
+        <v>85.01</v>
+      </c>
+      <c r="G25">
+        <f>main!G25</f>
+        <v>26.62</v>
+      </c>
+      <c r="H25">
+        <f>main!H25</f>
+        <v>4</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26">
+        <f>main!A26</f>
+        <v>4</v>
+      </c>
+      <c r="B26" t="str">
+        <f>main!B26</f>
+        <v>SVM kernel sigmoid</v>
+      </c>
+      <c r="C26">
+        <f>main!C26</f>
+        <v>73.260000000000005</v>
+      </c>
+      <c r="D26">
+        <f>main!D26</f>
+        <v>83.78</v>
+      </c>
+      <c r="E26">
+        <f>main!E26</f>
+        <v>9.19</v>
+      </c>
+      <c r="F26">
+        <f>main!F26</f>
+        <v>84.86</v>
+      </c>
+      <c r="G26">
+        <f>main!G26</f>
+        <v>26.74</v>
+      </c>
+      <c r="H26">
+        <f>main!H26</f>
+        <v>5</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27">
+        <f>main!A27</f>
+        <v>5</v>
+      </c>
+      <c r="B27" t="str">
+        <f>main!B27</f>
+        <v>Extra-trees</v>
+      </c>
+      <c r="C27">
+        <f>main!C27</f>
+        <v>88.97</v>
+      </c>
+      <c r="D27">
+        <f>main!D27</f>
+        <v>90.92</v>
+      </c>
+      <c r="E27">
+        <f>main!E27</f>
+        <v>46.72</v>
+      </c>
+      <c r="F27">
+        <f>main!F27</f>
+        <v>96.63</v>
+      </c>
+      <c r="G27">
+        <f>main!G27</f>
+        <v>11.03</v>
+      </c>
+      <c r="H27">
+        <f>main!H27</f>
+        <v>1</v>
+      </c>
+      <c r="I27" s="4">
+        <f>average!C7</f>
+        <v>89.095999999999989</v>
+      </c>
+      <c r="J27" s="4">
+        <f>average!D7</f>
+        <v>91.003999999999991</v>
+      </c>
+      <c r="K27" s="4">
+        <f>average!E7</f>
+        <v>47.186</v>
+      </c>
+      <c r="L27" s="4">
+        <f>average!F7</f>
+        <v>96.691999999999993</v>
+      </c>
+      <c r="M27" s="4">
+        <f>average!G7</f>
+        <v>10.904</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28">
+        <f>main!A28</f>
+        <v>5</v>
+      </c>
+      <c r="B28" t="str">
+        <f>main!B28</f>
+        <v>Extra-trees</v>
+      </c>
+      <c r="C28">
+        <f>main!C28</f>
+        <v>89.04</v>
+      </c>
+      <c r="D28">
+        <f>main!D28</f>
+        <v>91.04</v>
+      </c>
+      <c r="E28">
+        <f>main!E28</f>
+        <v>47.39</v>
+      </c>
+      <c r="F28">
+        <f>main!F28</f>
+        <v>96.58</v>
+      </c>
+      <c r="G28">
+        <f>main!G28</f>
+        <v>10.96</v>
+      </c>
+      <c r="H28">
+        <f>main!H28</f>
+        <v>2</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29">
+        <f>main!A29</f>
+        <v>5</v>
+      </c>
+      <c r="B29" t="str">
+        <f>main!B29</f>
+        <v>Extra-trees</v>
+      </c>
+      <c r="C29">
+        <f>main!C29</f>
+        <v>89.39</v>
+      </c>
+      <c r="D29">
+        <f>main!D29</f>
+        <v>91.19</v>
+      </c>
+      <c r="E29">
+        <f>main!E29</f>
+        <v>48.23</v>
+      </c>
+      <c r="F29">
+        <f>main!F29</f>
+        <v>96.83</v>
+      </c>
+      <c r="G29">
+        <f>main!G29</f>
+        <v>10.61</v>
+      </c>
+      <c r="H29">
+        <f>main!H29</f>
+        <v>3</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30">
+        <f>main!A30</f>
+        <v>5</v>
+      </c>
+      <c r="B30" t="str">
+        <f>main!B30</f>
+        <v>Extra-trees</v>
+      </c>
+      <c r="C30">
+        <f>main!C30</f>
+        <v>89.14</v>
+      </c>
+      <c r="D30">
+        <f>main!D30</f>
+        <v>91.07</v>
+      </c>
+      <c r="E30">
+        <f>main!E30</f>
+        <v>47.54</v>
+      </c>
+      <c r="F30">
+        <f>main!F30</f>
+        <v>96.67</v>
+      </c>
+      <c r="G30">
+        <f>main!G30</f>
+        <v>10.86</v>
+      </c>
+      <c r="H30">
+        <f>main!H30</f>
+        <v>4</v>
+      </c>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31">
+        <f>main!A31</f>
+        <v>5</v>
+      </c>
+      <c r="B31" t="str">
+        <f>main!B31</f>
+        <v>Extra-trees</v>
+      </c>
+      <c r="C31">
+        <f>main!C31</f>
+        <v>88.94</v>
+      </c>
+      <c r="D31">
+        <f>main!D31</f>
+        <v>90.8</v>
+      </c>
+      <c r="E31">
+        <f>main!E31</f>
+        <v>46.05</v>
+      </c>
+      <c r="F31">
+        <f>main!F31</f>
+        <v>96.75</v>
+      </c>
+      <c r="G31">
+        <f>main!G31</f>
+        <v>11.06</v>
+      </c>
+      <c r="H31">
+        <f>main!H31</f>
+        <v>5</v>
+      </c>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32">
+        <f>main!A32</f>
+        <v>5</v>
+      </c>
+      <c r="B32" t="str">
+        <f>main!B32</f>
+        <v>SVM kernel linear</v>
+      </c>
+      <c r="C32">
+        <f>main!C32</f>
+        <v>88.25</v>
+      </c>
+      <c r="D32">
+        <f>main!D32</f>
+        <v>89.04</v>
+      </c>
+      <c r="E32">
+        <f>main!E32</f>
+        <v>33.130000000000003</v>
+      </c>
+      <c r="F32">
+        <f>main!F32</f>
+        <v>98.21</v>
+      </c>
+      <c r="G32">
+        <f>main!G32</f>
+        <v>11.75</v>
+      </c>
+      <c r="H32">
+        <f>main!H32</f>
+        <v>1</v>
+      </c>
+      <c r="I32" s="4">
+        <f>average!C8</f>
+        <v>88.254000000000005</v>
+      </c>
+      <c r="J32" s="4">
+        <f>average!D8</f>
+        <v>89.035999999999987</v>
+      </c>
+      <c r="K32" s="4">
+        <f>average!E8</f>
+        <v>33.070000000000007</v>
+      </c>
+      <c r="L32" s="4">
+        <f>average!F8</f>
+        <v>98.227999999999994</v>
+      </c>
+      <c r="M32" s="4">
+        <f>average!G8</f>
+        <v>11.746</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33">
+        <f>main!A33</f>
+        <v>5</v>
+      </c>
+      <c r="B33" t="str">
+        <f>main!B33</f>
+        <v>SVM kernel linear</v>
+      </c>
+      <c r="C33">
+        <f>main!C33</f>
+        <v>88.3</v>
+      </c>
+      <c r="D33">
+        <f>main!D33</f>
+        <v>89.09</v>
+      </c>
+      <c r="E33">
+        <f>main!E33</f>
+        <v>33.39</v>
+      </c>
+      <c r="F33">
+        <f>main!F33</f>
+        <v>98.21</v>
+      </c>
+      <c r="G33">
+        <f>main!G33</f>
+        <v>11.7</v>
+      </c>
+      <c r="H33">
+        <f>main!H33</f>
+        <v>2</v>
+      </c>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34">
+        <f>main!A34</f>
+        <v>5</v>
+      </c>
+      <c r="B34" t="str">
+        <f>main!B34</f>
+        <v>SVM kernel linear</v>
+      </c>
+      <c r="C34">
+        <f>main!C34</f>
+        <v>88.17</v>
+      </c>
+      <c r="D34">
+        <f>main!D34</f>
+        <v>88.93</v>
+      </c>
+      <c r="E34">
+        <f>main!E34</f>
+        <v>32.270000000000003</v>
+      </c>
+      <c r="F34">
+        <f>main!F34</f>
+        <v>98.27</v>
+      </c>
+      <c r="G34">
+        <f>main!G34</f>
+        <v>11.83</v>
+      </c>
+      <c r="H34">
+        <f>main!H34</f>
+        <v>3</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35">
+        <f>main!A35</f>
+        <v>5</v>
+      </c>
+      <c r="B35" t="str">
+        <f>main!B35</f>
+        <v>SVM kernel linear</v>
+      </c>
+      <c r="C35">
+        <f>main!C35</f>
+        <v>88.3</v>
+      </c>
+      <c r="D35">
+        <f>main!D35</f>
+        <v>89.09</v>
+      </c>
+      <c r="E35">
+        <f>main!E35</f>
+        <v>33.409999999999997</v>
+      </c>
+      <c r="F35">
+        <f>main!F35</f>
+        <v>98.21</v>
+      </c>
+      <c r="G35">
+        <f>main!G35</f>
+        <v>11.7</v>
+      </c>
+      <c r="H35">
+        <f>main!H35</f>
+        <v>4</v>
+      </c>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36">
+        <f>main!A36</f>
+        <v>5</v>
+      </c>
+      <c r="B36" t="str">
+        <f>main!B36</f>
+        <v>SVM kernel linear</v>
+      </c>
+      <c r="C36">
+        <f>main!C36</f>
+        <v>88.25</v>
+      </c>
+      <c r="D36">
+        <f>main!D36</f>
+        <v>89.03</v>
+      </c>
+      <c r="E36">
+        <f>main!E36</f>
+        <v>33.15</v>
+      </c>
+      <c r="F36">
+        <f>main!F36</f>
+        <v>98.24</v>
+      </c>
+      <c r="G36">
+        <f>main!G36</f>
+        <v>11.75</v>
+      </c>
+      <c r="H36">
+        <f>main!H36</f>
+        <v>5</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37">
+        <f>main!A37</f>
+        <v>5</v>
+      </c>
+      <c r="B37" t="str">
+        <f>main!B37</f>
+        <v>SVM kernel poly</v>
+      </c>
+      <c r="C37">
+        <f>main!C37</f>
+        <v>87.95</v>
+      </c>
+      <c r="D37">
+        <f>main!D37</f>
+        <v>88.37</v>
+      </c>
+      <c r="E37">
+        <f>main!E37</f>
+        <v>28.12</v>
+      </c>
+      <c r="F37">
+        <f>main!F37</f>
+        <v>98.77</v>
+      </c>
+      <c r="G37">
+        <f>main!G37</f>
+        <v>12.05</v>
+      </c>
+      <c r="H37">
+        <f>main!H37</f>
+        <v>1</v>
+      </c>
+      <c r="I37" s="4">
+        <f>average!C9</f>
+        <v>87.947999999999993</v>
+      </c>
+      <c r="J37" s="4">
+        <f>average!D9</f>
+        <v>88.402000000000001</v>
+      </c>
+      <c r="K37" s="4">
+        <f>average!E9</f>
+        <v>28.378000000000004</v>
+      </c>
+      <c r="L37" s="4">
+        <f>average!F9</f>
+        <v>98.71599999999998</v>
+      </c>
+      <c r="M37" s="4">
+        <f>average!G9</f>
+        <v>12.052000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38">
+        <f>main!A38</f>
+        <v>5</v>
+      </c>
+      <c r="B38" t="str">
+        <f>main!B38</f>
+        <v>SVM kernel poly</v>
+      </c>
+      <c r="C38">
+        <f>main!C38</f>
+        <v>88</v>
+      </c>
+      <c r="D38">
+        <f>main!D38</f>
+        <v>88.48</v>
+      </c>
+      <c r="E38">
+        <f>main!E38</f>
+        <v>28.96</v>
+      </c>
+      <c r="F38">
+        <f>main!F38</f>
+        <v>98.68</v>
+      </c>
+      <c r="G38">
+        <f>main!G38</f>
+        <v>12</v>
+      </c>
+      <c r="H38">
+        <f>main!H38</f>
+        <v>2</v>
+      </c>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39">
+        <f>main!A39</f>
+        <v>5</v>
+      </c>
+      <c r="B39" t="str">
+        <f>main!B39</f>
+        <v>SVM kernel poly</v>
+      </c>
+      <c r="C39">
+        <f>main!C39</f>
+        <v>87.85</v>
+      </c>
+      <c r="D39">
+        <f>main!D39</f>
+        <v>88.3</v>
+      </c>
+      <c r="E39">
+        <f>main!E39</f>
+        <v>27.64</v>
+      </c>
+      <c r="F39">
+        <f>main!F39</f>
+        <v>98.71</v>
+      </c>
+      <c r="G39">
+        <f>main!G39</f>
+        <v>12.15</v>
+      </c>
+      <c r="H39">
+        <f>main!H39</f>
+        <v>3</v>
+      </c>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40">
+        <f>main!A40</f>
+        <v>5</v>
+      </c>
+      <c r="B40" t="str">
+        <f>main!B40</f>
+        <v>SVM kernel poly</v>
+      </c>
+      <c r="C40">
+        <f>main!C40</f>
+        <v>87.92</v>
+      </c>
+      <c r="D40">
+        <f>main!D40</f>
+        <v>88.39</v>
+      </c>
+      <c r="E40">
+        <f>main!E40</f>
+        <v>28.46</v>
+      </c>
+      <c r="F40">
+        <f>main!F40</f>
+        <v>98.71</v>
+      </c>
+      <c r="G40">
+        <f>main!G40</f>
+        <v>12.08</v>
+      </c>
+      <c r="H40">
+        <f>main!H40</f>
+        <v>4</v>
+      </c>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41">
+        <f>main!A41</f>
+        <v>5</v>
+      </c>
+      <c r="B41" t="str">
+        <f>main!B41</f>
+        <v>SVM kernel poly</v>
+      </c>
+      <c r="C41">
+        <f>main!C41</f>
+        <v>88.02</v>
+      </c>
+      <c r="D41">
+        <f>main!D41</f>
+        <v>88.47</v>
+      </c>
+      <c r="E41">
+        <f>main!E41</f>
+        <v>28.71</v>
+      </c>
+      <c r="F41">
+        <f>main!F41</f>
+        <v>98.71</v>
+      </c>
+      <c r="G41">
+        <f>main!G41</f>
+        <v>11.98</v>
+      </c>
+      <c r="H41">
+        <f>main!H41</f>
+        <v>5</v>
+      </c>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42">
+        <f>main!A42</f>
+        <v>5</v>
+      </c>
+      <c r="B42" t="str">
+        <f>main!B42</f>
+        <v>SVM kernel rbf</v>
+      </c>
+      <c r="C42">
+        <f>main!C42</f>
+        <v>89.09</v>
+      </c>
+      <c r="D42">
+        <f>main!D42</f>
+        <v>90.04</v>
+      </c>
+      <c r="E42">
+        <f>main!E42</f>
+        <v>40.21</v>
+      </c>
+      <c r="F42">
+        <f>main!F42</f>
+        <v>97.95</v>
+      </c>
+      <c r="G42">
+        <f>main!G42</f>
+        <v>10.91</v>
+      </c>
+      <c r="H42">
+        <f>main!H42</f>
+        <v>1</v>
+      </c>
+      <c r="I42" s="4">
+        <f>average!C10</f>
+        <v>89.156000000000006</v>
+      </c>
+      <c r="J42" s="4">
+        <f>average!D10</f>
+        <v>90.1</v>
+      </c>
+      <c r="K42" s="4">
+        <f>average!E10</f>
+        <v>40.508000000000003</v>
+      </c>
+      <c r="L42" s="4">
+        <f>average!F10</f>
+        <v>97.953999999999994</v>
+      </c>
+      <c r="M42" s="4">
+        <f>average!G10</f>
+        <v>10.843999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43">
+        <f>main!A43</f>
+        <v>5</v>
+      </c>
+      <c r="B43" t="str">
+        <f>main!B43</f>
+        <v>SVM kernel rbf</v>
+      </c>
+      <c r="C43">
+        <f>main!C43</f>
+        <v>89.21</v>
+      </c>
+      <c r="D43">
+        <f>main!D43</f>
+        <v>90.14</v>
+      </c>
+      <c r="E43">
+        <f>main!E43</f>
+        <v>40.9</v>
+      </c>
+      <c r="F43">
+        <f>main!F43</f>
+        <v>97.97</v>
+      </c>
+      <c r="G43">
+        <f>main!G43</f>
+        <v>10.79</v>
+      </c>
+      <c r="H43">
+        <f>main!H43</f>
+        <v>2</v>
+      </c>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44">
+        <f>main!A44</f>
+        <v>5</v>
+      </c>
+      <c r="B44" t="str">
+        <f>main!B44</f>
+        <v>SVM kernel rbf</v>
+      </c>
+      <c r="C44">
+        <f>main!C44</f>
+        <v>89.16</v>
+      </c>
+      <c r="D44">
+        <f>main!D44</f>
+        <v>90.07</v>
+      </c>
+      <c r="E44">
+        <f>main!E44</f>
+        <v>40.159999999999997</v>
+      </c>
+      <c r="F44">
+        <f>main!F44</f>
+        <v>98</v>
+      </c>
+      <c r="G44">
+        <f>main!G44</f>
+        <v>10.84</v>
+      </c>
+      <c r="H44">
+        <f>main!H44</f>
+        <v>3</v>
+      </c>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45">
+        <f>main!A45</f>
+        <v>5</v>
+      </c>
+      <c r="B45" t="str">
+        <f>main!B45</f>
+        <v>SVM kernel rbf</v>
+      </c>
+      <c r="C45">
+        <f>main!C45</f>
+        <v>89.11</v>
+      </c>
+      <c r="D45">
+        <f>main!D45</f>
+        <v>90.04</v>
+      </c>
+      <c r="E45">
+        <f>main!E45</f>
+        <v>40.130000000000003</v>
+      </c>
+      <c r="F45">
+        <f>main!F45</f>
+        <v>97.97</v>
+      </c>
+      <c r="G45">
+        <f>main!G45</f>
+        <v>10.89</v>
+      </c>
+      <c r="H45">
+        <f>main!H45</f>
+        <v>4</v>
+      </c>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46">
+        <f>main!A46</f>
+        <v>5</v>
+      </c>
+      <c r="B46" t="str">
+        <f>main!B46</f>
+        <v>SVM kernel rbf</v>
+      </c>
+      <c r="C46">
+        <f>main!C46</f>
+        <v>89.21</v>
+      </c>
+      <c r="D46">
+        <f>main!D46</f>
+        <v>90.21</v>
+      </c>
+      <c r="E46">
+        <f>main!E46</f>
+        <v>41.14</v>
+      </c>
+      <c r="F46">
+        <f>main!F46</f>
+        <v>97.88</v>
+      </c>
+      <c r="G46">
+        <f>main!G46</f>
+        <v>10.79</v>
+      </c>
+      <c r="H46">
+        <f>main!H46</f>
+        <v>5</v>
+      </c>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47">
+        <f>main!A47</f>
+        <v>5</v>
+      </c>
+      <c r="B47" t="str">
+        <f>main!B47</f>
+        <v>SVM kernel sigmoid</v>
+      </c>
+      <c r="C47">
+        <f>main!C47</f>
+        <v>73.06</v>
+      </c>
+      <c r="D47">
+        <f>main!D47</f>
+        <v>83.74</v>
+      </c>
+      <c r="E47">
+        <f>main!E47</f>
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="F47">
+        <f>main!F47</f>
+        <v>84.67</v>
+      </c>
+      <c r="G47">
+        <f>main!G47</f>
+        <v>26.94</v>
+      </c>
+      <c r="H47">
+        <f>main!H47</f>
+        <v>1</v>
+      </c>
+      <c r="I47" s="4">
+        <f>average!C11</f>
+        <v>73.202000000000012</v>
+      </c>
+      <c r="J47" s="4">
+        <f>average!D11</f>
+        <v>83.748000000000005</v>
+      </c>
+      <c r="K47" s="4">
+        <f>average!E11</f>
+        <v>8.8559999999999999</v>
+      </c>
+      <c r="L47" s="4">
+        <f>average!F11</f>
+        <v>84.824000000000012</v>
+      </c>
+      <c r="M47" s="4">
+        <f>average!G11</f>
+        <v>26.798000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48">
+        <f>main!A48</f>
+        <v>5</v>
+      </c>
+      <c r="B48" t="str">
+        <f>main!B48</f>
+        <v>SVM kernel sigmoid</v>
+      </c>
+      <c r="C48">
+        <f>main!C48</f>
+        <v>73.19</v>
+      </c>
+      <c r="D48">
+        <f>main!D48</f>
+        <v>83.77</v>
+      </c>
+      <c r="E48">
+        <f>main!E48</f>
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="F48">
+        <f>main!F48</f>
+        <v>84.79</v>
+      </c>
+      <c r="G48">
+        <f>main!G48</f>
+        <v>26.81</v>
+      </c>
+      <c r="H48">
+        <f>main!H48</f>
+        <v>2</v>
+      </c>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49">
+        <f>main!A49</f>
+        <v>5</v>
+      </c>
+      <c r="B49" t="str">
+        <f>main!B49</f>
+        <v>SVM kernel sigmoid</v>
+      </c>
+      <c r="C49">
+        <f>main!C49</f>
+        <v>73.36</v>
+      </c>
+      <c r="D49">
+        <f>main!D49</f>
+        <v>83.81</v>
+      </c>
+      <c r="E49">
+        <f>main!E49</f>
+        <v>9.18</v>
+      </c>
+      <c r="F49">
+        <f>main!F49</f>
+        <v>84.95</v>
+      </c>
+      <c r="G49">
+        <f>main!G49</f>
+        <v>26.64</v>
+      </c>
+      <c r="H49">
+        <f>main!H49</f>
+        <v>3</v>
+      </c>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50">
+        <f>main!A50</f>
+        <v>5</v>
+      </c>
+      <c r="B50" t="str">
+        <f>main!B50</f>
+        <v>SVM kernel sigmoid</v>
+      </c>
+      <c r="C50">
+        <f>main!C50</f>
+        <v>73.290000000000006</v>
+      </c>
+      <c r="D50">
+        <f>main!D50</f>
+        <v>83.76</v>
+      </c>
+      <c r="E50">
+        <f>main!E50</f>
+        <v>8.81</v>
+      </c>
+      <c r="F50">
+        <f>main!F50</f>
+        <v>84.91</v>
+      </c>
+      <c r="G50">
+        <f>main!G50</f>
+        <v>26.71</v>
+      </c>
+      <c r="H50">
+        <f>main!H50</f>
+        <v>4</v>
+      </c>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51">
+        <f>main!A51</f>
+        <v>5</v>
+      </c>
+      <c r="B51" t="str">
+        <f>main!B51</f>
+        <v>SVM kernel sigmoid</v>
+      </c>
+      <c r="C51">
+        <f>main!C51</f>
+        <v>73.11</v>
+      </c>
+      <c r="D51">
+        <f>main!D51</f>
+        <v>83.66</v>
+      </c>
+      <c r="E51">
+        <f>main!E51</f>
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="F51">
+        <f>main!F51</f>
+        <v>84.8</v>
+      </c>
+      <c r="G51">
+        <f>main!G51</f>
+        <v>26.89</v>
+      </c>
+      <c r="H51">
+        <f>main!H51</f>
+        <v>5</v>
+      </c>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52">
+        <f>main!A52</f>
+        <v>10</v>
+      </c>
+      <c r="B52" t="str">
+        <f>main!B52</f>
+        <v>Extra-trees</v>
+      </c>
+      <c r="C52">
+        <f>main!C52</f>
+        <v>88.92</v>
+      </c>
+      <c r="D52">
+        <f>main!D52</f>
+        <v>90.85</v>
+      </c>
+      <c r="E52">
+        <f>main!E52</f>
+        <v>46.03</v>
+      </c>
+      <c r="F52">
+        <f>main!F52</f>
+        <v>96.66</v>
+      </c>
+      <c r="G52">
+        <f>main!G52</f>
+        <v>11.08</v>
+      </c>
+      <c r="H52">
+        <f>main!H52</f>
+        <v>1</v>
+      </c>
+      <c r="I52" s="4">
+        <f>average!C12</f>
+        <v>89.122</v>
+      </c>
+      <c r="J52" s="4">
+        <f>average!D12</f>
+        <v>91.034000000000006</v>
+      </c>
+      <c r="K52" s="4">
+        <f>average!E12</f>
+        <v>47.464000000000006</v>
+      </c>
+      <c r="L52" s="4">
+        <f>average!F12</f>
+        <v>96.671999999999997</v>
+      </c>
+      <c r="M52" s="4">
+        <f>average!G12</f>
+        <v>10.878</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53">
+        <f>main!A53</f>
+        <v>10</v>
+      </c>
+      <c r="B53" t="str">
+        <f>main!B53</f>
+        <v>Extra-trees</v>
+      </c>
+      <c r="C53">
+        <f>main!C53</f>
+        <v>89.09</v>
+      </c>
+      <c r="D53">
+        <f>main!D53</f>
+        <v>90.9</v>
+      </c>
+      <c r="E53">
+        <f>main!E53</f>
+        <v>46.6</v>
+      </c>
+      <c r="F53">
+        <f>main!F53</f>
+        <v>96.79</v>
+      </c>
+      <c r="G53">
+        <f>main!G53</f>
+        <v>10.91</v>
+      </c>
+      <c r="H53">
+        <f>main!H53</f>
+        <v>2</v>
+      </c>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54">
+        <f>main!A54</f>
+        <v>10</v>
+      </c>
+      <c r="B54" t="str">
+        <f>main!B54</f>
+        <v>Extra-trees</v>
+      </c>
+      <c r="C54">
+        <f>main!C54</f>
+        <v>89.31</v>
+      </c>
+      <c r="D54">
+        <f>main!D54</f>
+        <v>91.23</v>
+      </c>
+      <c r="E54">
+        <f>main!E54</f>
+        <v>49.05</v>
+      </c>
+      <c r="F54">
+        <f>main!F54</f>
+        <v>96.69</v>
+      </c>
+      <c r="G54">
+        <f>main!G54</f>
+        <v>10.69</v>
+      </c>
+      <c r="H54">
+        <f>main!H54</f>
+        <v>3</v>
+      </c>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55">
+        <f>main!A55</f>
+        <v>10</v>
+      </c>
+      <c r="B55" t="str">
+        <f>main!B55</f>
+        <v>Extra-trees</v>
+      </c>
+      <c r="C55">
+        <f>main!C55</f>
+        <v>89.12</v>
+      </c>
+      <c r="D55">
+        <f>main!D55</f>
+        <v>91.12</v>
+      </c>
+      <c r="E55">
+        <f>main!E55</f>
+        <v>48.02</v>
+      </c>
+      <c r="F55">
+        <f>main!F55</f>
+        <v>96.54</v>
+      </c>
+      <c r="G55">
+        <f>main!G55</f>
+        <v>10.88</v>
+      </c>
+      <c r="H55">
+        <f>main!H55</f>
+        <v>4</v>
+      </c>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56">
+        <f>main!A56</f>
+        <v>10</v>
+      </c>
+      <c r="B56" t="str">
+        <f>main!B56</f>
+        <v>Extra-trees</v>
+      </c>
+      <c r="C56">
+        <f>main!C56</f>
+        <v>89.17</v>
+      </c>
+      <c r="D56">
+        <f>main!D56</f>
+        <v>91.07</v>
+      </c>
+      <c r="E56">
+        <f>main!E56</f>
+        <v>47.62</v>
+      </c>
+      <c r="F56">
+        <f>main!F56</f>
+        <v>96.68</v>
+      </c>
+      <c r="G56">
+        <f>main!G56</f>
+        <v>10.83</v>
+      </c>
+      <c r="H56">
+        <f>main!H56</f>
+        <v>5</v>
+      </c>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57">
+        <f>main!A57</f>
+        <v>10</v>
+      </c>
+      <c r="B57" t="str">
+        <f>main!B57</f>
+        <v>SVM kernel linear</v>
+      </c>
+      <c r="C57">
+        <f>main!C57</f>
+        <v>88.22</v>
+      </c>
+      <c r="D57">
+        <f>main!D57</f>
+        <v>88.99</v>
+      </c>
+      <c r="E57">
+        <f>main!E57</f>
+        <v>32.69</v>
+      </c>
+      <c r="F57">
+        <f>main!F57</f>
+        <v>98.24</v>
+      </c>
+      <c r="G57">
+        <f>main!G57</f>
+        <v>11.78</v>
+      </c>
+      <c r="H57">
+        <f>main!H57</f>
+        <v>1</v>
+      </c>
+      <c r="I57" s="4">
+        <f>average!C13</f>
+        <v>88.23</v>
+      </c>
+      <c r="J57" s="4">
+        <f>average!D13</f>
+        <v>89.003999999999991</v>
+      </c>
+      <c r="K57" s="4">
+        <f>average!E13</f>
+        <v>32.828000000000003</v>
+      </c>
+      <c r="L57" s="4">
+        <f>average!F13</f>
+        <v>98.24799999999999</v>
+      </c>
+      <c r="M57" s="4">
+        <f>average!G13</f>
+        <v>11.77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58">
+        <f>main!A58</f>
+        <v>10</v>
+      </c>
+      <c r="B58" t="str">
+        <f>main!B58</f>
+        <v>SVM kernel linear</v>
+      </c>
+      <c r="C58">
+        <f>main!C58</f>
+        <v>88.17</v>
+      </c>
+      <c r="D58">
+        <f>main!D58</f>
+        <v>88.92</v>
+      </c>
+      <c r="E58">
+        <f>main!E58</f>
+        <v>32.159999999999997</v>
+      </c>
+      <c r="F58">
+        <f>main!F58</f>
+        <v>98.28</v>
+      </c>
+      <c r="G58">
+        <f>main!G58</f>
+        <v>11.83</v>
+      </c>
+      <c r="H58">
+        <f>main!H58</f>
+        <v>2</v>
+      </c>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59">
+        <f>main!A59</f>
+        <v>10</v>
+      </c>
+      <c r="B59" t="str">
+        <f>main!B59</f>
+        <v>SVM kernel linear</v>
+      </c>
+      <c r="C59">
+        <f>main!C59</f>
+        <v>88.25</v>
+      </c>
+      <c r="D59">
+        <f>main!D59</f>
+        <v>89.04</v>
+      </c>
+      <c r="E59">
+        <f>main!E59</f>
+        <v>33.25</v>
+      </c>
+      <c r="F59">
+        <f>main!F59</f>
+        <v>98.24</v>
+      </c>
+      <c r="G59">
+        <f>main!G59</f>
+        <v>11.75</v>
+      </c>
+      <c r="H59">
+        <f>main!H59</f>
+        <v>3</v>
+      </c>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60">
+        <f>main!A60</f>
+        <v>10</v>
+      </c>
+      <c r="B60" t="str">
+        <f>main!B60</f>
+        <v>SVM kernel linear</v>
+      </c>
+      <c r="C60">
+        <f>main!C60</f>
+        <v>88.22</v>
+      </c>
+      <c r="D60">
+        <f>main!D60</f>
+        <v>89.02</v>
+      </c>
+      <c r="E60">
+        <f>main!E60</f>
+        <v>32.83</v>
+      </c>
+      <c r="F60">
+        <f>main!F60</f>
+        <v>98.21</v>
+      </c>
+      <c r="G60">
+        <f>main!G60</f>
+        <v>11.78</v>
+      </c>
+      <c r="H60">
+        <f>main!H60</f>
+        <v>4</v>
+      </c>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61">
+        <f>main!A61</f>
+        <v>10</v>
+      </c>
+      <c r="B61" t="str">
+        <f>main!B61</f>
+        <v>SVM kernel linear</v>
+      </c>
+      <c r="C61">
+        <f>main!C61</f>
+        <v>88.29</v>
+      </c>
+      <c r="D61">
+        <f>main!D61</f>
+        <v>89.05</v>
+      </c>
+      <c r="E61">
+        <f>main!E61</f>
+        <v>33.21</v>
+      </c>
+      <c r="F61">
+        <f>main!F61</f>
+        <v>98.27</v>
+      </c>
+      <c r="G61">
+        <f>main!G61</f>
+        <v>11.71</v>
+      </c>
+      <c r="H61">
+        <f>main!H61</f>
+        <v>5</v>
+      </c>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62">
+        <f>main!A62</f>
+        <v>10</v>
+      </c>
+      <c r="B62" t="str">
+        <f>main!B62</f>
+        <v>SVM kernel poly</v>
+      </c>
+      <c r="C62">
+        <f>main!C62</f>
+        <v>87.92</v>
+      </c>
+      <c r="D62">
+        <f>main!D62</f>
+        <v>88.37</v>
+      </c>
+      <c r="E62">
+        <f>main!E62</f>
+        <v>28.22</v>
+      </c>
+      <c r="F62">
+        <f>main!F62</f>
+        <v>98.74</v>
+      </c>
+      <c r="G62">
+        <f>main!G62</f>
+        <v>12.08</v>
+      </c>
+      <c r="H62">
+        <f>main!H62</f>
+        <v>1</v>
+      </c>
+      <c r="I62" s="4">
+        <f>average!C14</f>
+        <v>87.921999999999997</v>
+      </c>
+      <c r="J62" s="4">
+        <f>average!D14</f>
+        <v>88.362000000000009</v>
+      </c>
+      <c r="K62" s="4">
+        <f>average!E14</f>
+        <v>28.060000000000002</v>
+      </c>
+      <c r="L62" s="4">
+        <f>average!F14</f>
+        <v>98.744</v>
+      </c>
+      <c r="M62" s="4">
+        <f>average!G14</f>
+        <v>12.077999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63">
+        <f>main!A63</f>
+        <v>10</v>
+      </c>
+      <c r="B63" t="str">
+        <f>main!B63</f>
+        <v>SVM kernel poly</v>
+      </c>
+      <c r="C63">
+        <f>main!C63</f>
+        <v>87.82</v>
+      </c>
+      <c r="D63">
+        <f>main!D63</f>
+        <v>88.31</v>
+      </c>
+      <c r="E63">
+        <f>main!E63</f>
+        <v>27.77</v>
+      </c>
+      <c r="F63">
+        <f>main!F63</f>
+        <v>98.68</v>
+      </c>
+      <c r="G63">
+        <f>main!G63</f>
+        <v>12.18</v>
+      </c>
+      <c r="H63">
+        <f>main!H63</f>
+        <v>2</v>
+      </c>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64">
+        <f>main!A64</f>
+        <v>10</v>
+      </c>
+      <c r="B64" t="str">
+        <f>main!B64</f>
+        <v>SVM kernel poly</v>
+      </c>
+      <c r="C64">
+        <f>main!C64</f>
+        <v>88</v>
+      </c>
+      <c r="D64">
+        <f>main!D64</f>
+        <v>88.4</v>
+      </c>
+      <c r="E64">
+        <f>main!E64</f>
+        <v>28.36</v>
+      </c>
+      <c r="F64">
+        <f>main!F64</f>
+        <v>98.8</v>
+      </c>
+      <c r="G64">
+        <f>main!G64</f>
+        <v>12</v>
+      </c>
+      <c r="H64">
+        <f>main!H64</f>
+        <v>3</v>
+      </c>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65">
+        <f>main!A65</f>
+        <v>10</v>
+      </c>
+      <c r="B65" t="str">
+        <f>main!B65</f>
+        <v>SVM kernel poly</v>
+      </c>
+      <c r="C65">
+        <f>main!C65</f>
+        <v>87.9</v>
+      </c>
+      <c r="D65">
+        <f>main!D65</f>
+        <v>88.36</v>
+      </c>
+      <c r="E65">
+        <f>main!E65</f>
+        <v>28.03</v>
+      </c>
+      <c r="F65">
+        <f>main!F65</f>
+        <v>98.71</v>
+      </c>
+      <c r="G65">
+        <f>main!G65</f>
+        <v>12.1</v>
+      </c>
+      <c r="H65">
+        <f>main!H65</f>
+        <v>4</v>
+      </c>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66">
+        <f>main!A66</f>
+        <v>10</v>
+      </c>
+      <c r="B66" t="str">
+        <f>main!B66</f>
+        <v>SVM kernel poly</v>
+      </c>
+      <c r="C66">
+        <f>main!C66</f>
+        <v>87.97</v>
+      </c>
+      <c r="D66">
+        <f>main!D66</f>
+        <v>88.37</v>
+      </c>
+      <c r="E66">
+        <f>main!E66</f>
+        <v>27.92</v>
+      </c>
+      <c r="F66">
+        <f>main!F66</f>
+        <v>98.79</v>
+      </c>
+      <c r="G66">
+        <f>main!G66</f>
+        <v>12.03</v>
+      </c>
+      <c r="H66">
+        <f>main!H66</f>
+        <v>5</v>
+      </c>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67">
+        <f>main!A67</f>
+        <v>10</v>
+      </c>
+      <c r="B67" t="str">
+        <f>main!B67</f>
+        <v>SVM kernel rbf</v>
+      </c>
+      <c r="C67">
+        <f>main!C67</f>
+        <v>89.09</v>
+      </c>
+      <c r="D67">
+        <f>main!D67</f>
+        <v>90.03</v>
+      </c>
+      <c r="E67">
+        <f>main!E67</f>
+        <v>40.06</v>
+      </c>
+      <c r="F67">
+        <f>main!F67</f>
+        <v>97.98</v>
+      </c>
+      <c r="G67">
+        <f>main!G67</f>
+        <v>10.91</v>
+      </c>
+      <c r="H67">
+        <f>main!H67</f>
+        <v>1</v>
+      </c>
+      <c r="I67" s="4">
+        <f>average!C15</f>
+        <v>89.126000000000005</v>
+      </c>
+      <c r="J67" s="4">
+        <f>average!D15</f>
+        <v>90.075999999999993</v>
+      </c>
+      <c r="K67" s="4">
+        <f>average!E15</f>
+        <v>40.436000000000007</v>
+      </c>
+      <c r="L67" s="4">
+        <f>average!F15</f>
+        <v>97.962000000000003</v>
+      </c>
+      <c r="M67" s="4">
+        <f>average!G15</f>
+        <v>10.873999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68">
+        <f>main!A68</f>
+        <v>10</v>
+      </c>
+      <c r="B68" t="str">
+        <f>main!B68</f>
+        <v>SVM kernel rbf</v>
+      </c>
+      <c r="C68">
+        <f>main!C68</f>
+        <v>89.19</v>
+      </c>
+      <c r="D68">
+        <f>main!D68</f>
+        <v>90.13</v>
+      </c>
+      <c r="E68">
+        <f>main!E68</f>
+        <v>41.02</v>
+      </c>
+      <c r="F68">
+        <f>main!F68</f>
+        <v>97.98</v>
+      </c>
+      <c r="G68">
+        <f>main!G68</f>
+        <v>10.81</v>
+      </c>
+      <c r="H68">
+        <f>main!H68</f>
+        <v>2</v>
+      </c>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69">
+        <f>main!A69</f>
+        <v>10</v>
+      </c>
+      <c r="B69" t="str">
+        <f>main!B69</f>
+        <v>SVM kernel rbf</v>
+      </c>
+      <c r="C69">
+        <f>main!C69</f>
+        <v>89.14</v>
+      </c>
+      <c r="D69">
+        <f>main!D69</f>
+        <v>90.05</v>
+      </c>
+      <c r="E69">
+        <f>main!E69</f>
+        <v>40.28</v>
+      </c>
+      <c r="F69">
+        <f>main!F69</f>
+        <v>98.02</v>
+      </c>
+      <c r="G69">
+        <f>main!G69</f>
+        <v>10.86</v>
+      </c>
+      <c r="H69">
+        <f>main!H69</f>
+        <v>3</v>
+      </c>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70">
+        <f>main!A70</f>
+        <v>10</v>
+      </c>
+      <c r="B70" t="str">
+        <f>main!B70</f>
+        <v>SVM kernel rbf</v>
+      </c>
+      <c r="C70">
+        <f>main!C70</f>
+        <v>89.04</v>
+      </c>
+      <c r="D70">
+        <f>main!D70</f>
+        <v>90.04</v>
+      </c>
+      <c r="E70">
+        <f>main!E70</f>
+        <v>40.299999999999997</v>
+      </c>
+      <c r="F70">
+        <f>main!F70</f>
+        <v>97.88</v>
+      </c>
+      <c r="G70">
+        <f>main!G70</f>
+        <v>10.96</v>
+      </c>
+      <c r="H70">
+        <f>main!H70</f>
+        <v>4</v>
+      </c>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71">
+        <f>main!A71</f>
+        <v>10</v>
+      </c>
+      <c r="B71" t="str">
+        <f>main!B71</f>
+        <v>SVM kernel rbf</v>
+      </c>
+      <c r="C71">
+        <f>main!C71</f>
+        <v>89.17</v>
+      </c>
+      <c r="D71">
+        <f>main!D71</f>
+        <v>90.13</v>
+      </c>
+      <c r="E71">
+        <f>main!E71</f>
+        <v>40.520000000000003</v>
+      </c>
+      <c r="F71">
+        <f>main!F71</f>
+        <v>97.95</v>
+      </c>
+      <c r="G71">
+        <f>main!G71</f>
+        <v>10.83</v>
+      </c>
+      <c r="H71">
+        <f>main!H71</f>
+        <v>5</v>
+      </c>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72">
+        <f>main!A72</f>
+        <v>10</v>
+      </c>
+      <c r="B72" t="str">
+        <f>main!B72</f>
+        <v>SVM kernel sigmoid</v>
+      </c>
+      <c r="C72">
+        <f>main!C72</f>
+        <v>73.290000000000006</v>
+      </c>
+      <c r="D72">
+        <f>main!D72</f>
+        <v>83.84</v>
+      </c>
+      <c r="E72">
+        <f>main!E72</f>
+        <v>9.73</v>
+      </c>
+      <c r="F72">
+        <f>main!F72</f>
+        <v>84.8</v>
+      </c>
+      <c r="G72">
+        <f>main!G72</f>
+        <v>26.71</v>
+      </c>
+      <c r="H72">
+        <f>main!H72</f>
+        <v>1</v>
+      </c>
+      <c r="I72" s="4">
+        <f>average!C16</f>
+        <v>73.25</v>
+      </c>
+      <c r="J72" s="4">
+        <f>average!D16</f>
+        <v>83.789999999999992</v>
+      </c>
+      <c r="K72" s="4">
+        <f>average!E16</f>
+        <v>9.2800000000000011</v>
+      </c>
+      <c r="L72" s="4">
+        <f>average!F16</f>
+        <v>84.808000000000007</v>
+      </c>
+      <c r="M72" s="4">
+        <f>average!G16</f>
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73">
+        <f>main!A73</f>
+        <v>10</v>
+      </c>
+      <c r="B73" t="str">
+        <f>main!B73</f>
+        <v>SVM kernel sigmoid</v>
+      </c>
+      <c r="C73">
+        <f>main!C73</f>
+        <v>73.239999999999995</v>
+      </c>
+      <c r="D73">
+        <f>main!D73</f>
+        <v>83.75</v>
+      </c>
+      <c r="E73">
+        <f>main!E73</f>
+        <v>9.08</v>
+      </c>
+      <c r="F73">
+        <f>main!F73</f>
+        <v>84.85</v>
+      </c>
+      <c r="G73">
+        <f>main!G73</f>
+        <v>26.76</v>
+      </c>
+      <c r="H73">
+        <f>main!H73</f>
+        <v>2</v>
+      </c>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74">
+        <f>main!A74</f>
+        <v>10</v>
+      </c>
+      <c r="B74" t="str">
+        <f>main!B74</f>
+        <v>SVM kernel sigmoid</v>
+      </c>
+      <c r="C74">
+        <f>main!C74</f>
+        <v>73.34</v>
+      </c>
+      <c r="D74">
+        <f>main!D74</f>
+        <v>83.82</v>
+      </c>
+      <c r="E74">
+        <f>main!E74</f>
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="F74">
+        <f>main!F74</f>
+        <v>84.93</v>
+      </c>
+      <c r="G74">
+        <f>main!G74</f>
+        <v>26.66</v>
+      </c>
+      <c r="H74">
+        <f>main!H74</f>
+        <v>3</v>
+      </c>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75">
+        <f>main!A75</f>
+        <v>10</v>
+      </c>
+      <c r="B75" t="str">
+        <f>main!B75</f>
+        <v>SVM kernel sigmoid</v>
+      </c>
+      <c r="C75">
+        <f>main!C75</f>
+        <v>73.19</v>
+      </c>
+      <c r="D75">
+        <f>main!D75</f>
+        <v>83.77</v>
+      </c>
+      <c r="E75">
+        <f>main!E75</f>
+        <v>9.18</v>
+      </c>
+      <c r="F75">
+        <f>main!F75</f>
+        <v>84.73</v>
+      </c>
+      <c r="G75">
+        <f>main!G75</f>
+        <v>26.81</v>
+      </c>
+      <c r="H75">
+        <f>main!H75</f>
+        <v>4</v>
+      </c>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76">
+        <f>main!A76</f>
+        <v>10</v>
+      </c>
+      <c r="B76" t="str">
+        <f>main!B76</f>
+        <v>SVM kernel sigmoid</v>
+      </c>
+      <c r="C76">
+        <f>main!C76</f>
+        <v>73.19</v>
+      </c>
+      <c r="D76">
+        <f>main!D76</f>
+        <v>83.77</v>
+      </c>
+      <c r="E76">
+        <f>main!E76</f>
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="F76">
+        <f>main!F76</f>
+        <v>84.73</v>
+      </c>
+      <c r="G76">
+        <f>main!G76</f>
+        <v>26.81</v>
+      </c>
+      <c r="H76">
+        <f>main!H76</f>
+        <v>5</v>
+      </c>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="75">
+    <mergeCell ref="I72:I76"/>
+    <mergeCell ref="J72:J76"/>
+    <mergeCell ref="K72:K76"/>
+    <mergeCell ref="L72:L76"/>
+    <mergeCell ref="M72:M76"/>
+    <mergeCell ref="I62:I66"/>
+    <mergeCell ref="J62:J66"/>
+    <mergeCell ref="K62:K66"/>
+    <mergeCell ref="L62:L66"/>
+    <mergeCell ref="M62:M66"/>
+    <mergeCell ref="I67:I71"/>
+    <mergeCell ref="J67:J71"/>
+    <mergeCell ref="K67:K71"/>
+    <mergeCell ref="L67:L71"/>
+    <mergeCell ref="M67:M71"/>
+    <mergeCell ref="I52:I56"/>
+    <mergeCell ref="J52:J56"/>
+    <mergeCell ref="K52:K56"/>
+    <mergeCell ref="L52:L56"/>
+    <mergeCell ref="M52:M56"/>
+    <mergeCell ref="I57:I61"/>
+    <mergeCell ref="J57:J61"/>
+    <mergeCell ref="K57:K61"/>
+    <mergeCell ref="L57:L61"/>
+    <mergeCell ref="M57:M61"/>
+    <mergeCell ref="I42:I46"/>
+    <mergeCell ref="J42:J46"/>
+    <mergeCell ref="K42:K46"/>
+    <mergeCell ref="L42:L46"/>
+    <mergeCell ref="M42:M46"/>
+    <mergeCell ref="I47:I51"/>
+    <mergeCell ref="J47:J51"/>
+    <mergeCell ref="K47:K51"/>
+    <mergeCell ref="L47:L51"/>
+    <mergeCell ref="M47:M51"/>
+    <mergeCell ref="I32:I36"/>
+    <mergeCell ref="J32:J36"/>
+    <mergeCell ref="K32:K36"/>
+    <mergeCell ref="L32:L36"/>
+    <mergeCell ref="M32:M36"/>
+    <mergeCell ref="I37:I41"/>
+    <mergeCell ref="J37:J41"/>
+    <mergeCell ref="K37:K41"/>
+    <mergeCell ref="L37:L41"/>
+    <mergeCell ref="M37:M41"/>
+    <mergeCell ref="I22:I26"/>
+    <mergeCell ref="J22:J26"/>
+    <mergeCell ref="K22:K26"/>
+    <mergeCell ref="L22:L26"/>
+    <mergeCell ref="M22:M26"/>
+    <mergeCell ref="I27:I31"/>
+    <mergeCell ref="J27:J31"/>
+    <mergeCell ref="K27:K31"/>
+    <mergeCell ref="L27:L31"/>
+    <mergeCell ref="M27:M31"/>
+    <mergeCell ref="I12:I16"/>
+    <mergeCell ref="J12:J16"/>
+    <mergeCell ref="K12:K16"/>
+    <mergeCell ref="L12:L16"/>
+    <mergeCell ref="M12:M16"/>
+    <mergeCell ref="I17:I21"/>
+    <mergeCell ref="J17:J21"/>
+    <mergeCell ref="K17:K21"/>
+    <mergeCell ref="L17:L21"/>
+    <mergeCell ref="M17:M21"/>
+    <mergeCell ref="I2:I6"/>
+    <mergeCell ref="J2:J6"/>
+    <mergeCell ref="K2:K6"/>
+    <mergeCell ref="L2:L6"/>
+    <mergeCell ref="M2:M6"/>
+    <mergeCell ref="I7:I11"/>
+    <mergeCell ref="J7:J11"/>
+    <mergeCell ref="K7:K11"/>
+    <mergeCell ref="L7:L11"/>
+    <mergeCell ref="M7:M11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/result_5-iteration.xlsx
+++ b/result_5-iteration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Files\UNAIR\SKRIPSI\skripsi-py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3700AA47-BCD4-4876-BBBD-2629F6116B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920406CD-825D-4891-ACD0-C857774F0772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9948" yWindow="612" windowWidth="13044" windowHeight="10464" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4584" yWindow="1248" windowWidth="13044" windowHeight="10464" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,17 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main!$A$1:$H$76</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -125,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -134,15 +145,14 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,12 +463,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9" style="6"/>
+    <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -484,7 +494,7 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="5">
+      <c r="A2">
         <v>4</v>
       </c>
       <c r="B2" t="s">
@@ -510,7 +520,7 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="5">
+      <c r="A3">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -536,7 +546,7 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="5">
+      <c r="A4">
         <v>4</v>
       </c>
       <c r="B4" t="s">
@@ -562,7 +572,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="5">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -588,7 +598,7 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="5">
+      <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -614,7 +624,7 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="5">
+      <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
@@ -640,7 +650,7 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="5">
+      <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" t="s">
@@ -666,7 +676,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="5">
+      <c r="A9">
         <v>4</v>
       </c>
       <c r="B9" t="s">
@@ -692,7 +702,7 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="5">
+      <c r="A10">
         <v>4</v>
       </c>
       <c r="B10" t="s">
@@ -718,7 +728,7 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="5">
+      <c r="A11">
         <v>4</v>
       </c>
       <c r="B11" t="s">
@@ -744,7 +754,7 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="5">
+      <c r="A12">
         <v>4</v>
       </c>
       <c r="B12" t="s">
@@ -770,7 +780,7 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="5">
+      <c r="A13">
         <v>4</v>
       </c>
       <c r="B13" t="s">
@@ -796,7 +806,7 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="5">
+      <c r="A14">
         <v>4</v>
       </c>
       <c r="B14" t="s">
@@ -822,7 +832,7 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="5">
+      <c r="A15">
         <v>4</v>
       </c>
       <c r="B15" t="s">
@@ -848,7 +858,7 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="5">
+      <c r="A16">
         <v>4</v>
       </c>
       <c r="B16" t="s">
@@ -874,7 +884,7 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="5">
+      <c r="A17">
         <v>4</v>
       </c>
       <c r="B17" t="s">
@@ -900,7 +910,7 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="5">
+      <c r="A18">
         <v>4</v>
       </c>
       <c r="B18" t="s">
@@ -926,7 +936,7 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="5">
+      <c r="A19">
         <v>4</v>
       </c>
       <c r="B19" t="s">
@@ -952,7 +962,7 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="5">
+      <c r="A20">
         <v>4</v>
       </c>
       <c r="B20" t="s">
@@ -978,7 +988,7 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="5">
+      <c r="A21">
         <v>4</v>
       </c>
       <c r="B21" t="s">
@@ -1004,7 +1014,7 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="5">
+      <c r="A22">
         <v>4</v>
       </c>
       <c r="B22" t="s">
@@ -1030,7 +1040,7 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="5">
+      <c r="A23">
         <v>4</v>
       </c>
       <c r="B23" t="s">
@@ -1056,7 +1066,7 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="5">
+      <c r="A24">
         <v>4</v>
       </c>
       <c r="B24" t="s">
@@ -1082,7 +1092,7 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="5">
+      <c r="A25">
         <v>4</v>
       </c>
       <c r="B25" t="s">
@@ -1108,7 +1118,7 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="5">
+      <c r="A26">
         <v>4</v>
       </c>
       <c r="B26" t="s">
@@ -1134,7 +1144,7 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="5">
+      <c r="A27">
         <v>5</v>
       </c>
       <c r="B27" t="s">
@@ -1160,7 +1170,7 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="5">
+      <c r="A28">
         <v>5</v>
       </c>
       <c r="B28" t="s">
@@ -1186,7 +1196,7 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="5">
+      <c r="A29">
         <v>5</v>
       </c>
       <c r="B29" t="s">
@@ -1212,7 +1222,7 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="5">
+      <c r="A30">
         <v>5</v>
       </c>
       <c r="B30" t="s">
@@ -1238,7 +1248,7 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="5">
+      <c r="A31">
         <v>5</v>
       </c>
       <c r="B31" t="s">
@@ -1264,7 +1274,7 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="5">
+      <c r="A32">
         <v>5</v>
       </c>
       <c r="B32" t="s">
@@ -1290,7 +1300,7 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="5">
+      <c r="A33">
         <v>5</v>
       </c>
       <c r="B33" t="s">
@@ -1316,7 +1326,7 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="5">
+      <c r="A34">
         <v>5</v>
       </c>
       <c r="B34" t="s">
@@ -1342,7 +1352,7 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="5">
+      <c r="A35">
         <v>5</v>
       </c>
       <c r="B35" t="s">
@@ -1368,7 +1378,7 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="5">
+      <c r="A36">
         <v>5</v>
       </c>
       <c r="B36" t="s">
@@ -1394,7 +1404,7 @@
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="5">
+      <c r="A37">
         <v>5</v>
       </c>
       <c r="B37" t="s">
@@ -1420,7 +1430,7 @@
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="5">
+      <c r="A38">
         <v>5</v>
       </c>
       <c r="B38" t="s">
@@ -1446,7 +1456,7 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="5">
+      <c r="A39">
         <v>5</v>
       </c>
       <c r="B39" t="s">
@@ -1472,7 +1482,7 @@
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="5">
+      <c r="A40">
         <v>5</v>
       </c>
       <c r="B40" t="s">
@@ -1498,7 +1508,7 @@
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="5">
+      <c r="A41">
         <v>5</v>
       </c>
       <c r="B41" t="s">
@@ -1524,7 +1534,7 @@
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="5">
+      <c r="A42">
         <v>5</v>
       </c>
       <c r="B42" t="s">
@@ -1550,7 +1560,7 @@
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="5">
+      <c r="A43">
         <v>5</v>
       </c>
       <c r="B43" t="s">
@@ -1576,7 +1586,7 @@
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="5">
+      <c r="A44">
         <v>5</v>
       </c>
       <c r="B44" t="s">
@@ -1602,7 +1612,7 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="5">
+      <c r="A45">
         <v>5</v>
       </c>
       <c r="B45" t="s">
@@ -1628,7 +1638,7 @@
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="5">
+      <c r="A46">
         <v>5</v>
       </c>
       <c r="B46" t="s">
@@ -1654,7 +1664,7 @@
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="5">
+      <c r="A47">
         <v>5</v>
       </c>
       <c r="B47" t="s">
@@ -1680,7 +1690,7 @@
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="5">
+      <c r="A48">
         <v>5</v>
       </c>
       <c r="B48" t="s">
@@ -1706,7 +1716,7 @@
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="5">
+      <c r="A49">
         <v>5</v>
       </c>
       <c r="B49" t="s">
@@ -1732,7 +1742,7 @@
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="5">
+      <c r="A50">
         <v>5</v>
       </c>
       <c r="B50" t="s">
@@ -1758,7 +1768,7 @@
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="5">
+      <c r="A51">
         <v>5</v>
       </c>
       <c r="B51" t="s">
@@ -1784,7 +1794,7 @@
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="8">
+      <c r="A52" s="6">
         <v>10</v>
       </c>
       <c r="B52" t="s">
@@ -1810,7 +1820,7 @@
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="5">
+      <c r="A53">
         <v>10</v>
       </c>
       <c r="B53" t="s">
@@ -1836,7 +1846,7 @@
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="5">
+      <c r="A54">
         <v>10</v>
       </c>
       <c r="B54" t="s">
@@ -1862,7 +1872,7 @@
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="5">
+      <c r="A55">
         <v>10</v>
       </c>
       <c r="B55" t="s">
@@ -1888,7 +1898,7 @@
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="5">
+      <c r="A56">
         <v>10</v>
       </c>
       <c r="B56" t="s">
@@ -1914,7 +1924,7 @@
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="5">
+      <c r="A57">
         <v>10</v>
       </c>
       <c r="B57" t="s">
@@ -1940,7 +1950,7 @@
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="5">
+      <c r="A58">
         <v>10</v>
       </c>
       <c r="B58" t="s">
@@ -1966,7 +1976,7 @@
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="5">
+      <c r="A59">
         <v>10</v>
       </c>
       <c r="B59" t="s">
@@ -1992,7 +2002,7 @@
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="5">
+      <c r="A60">
         <v>10</v>
       </c>
       <c r="B60" t="s">
@@ -2018,7 +2028,7 @@
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="5">
+      <c r="A61">
         <v>10</v>
       </c>
       <c r="B61" t="s">
@@ -2044,7 +2054,7 @@
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="5">
+      <c r="A62">
         <v>10</v>
       </c>
       <c r="B62" t="s">
@@ -2070,7 +2080,7 @@
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="5">
+      <c r="A63">
         <v>10</v>
       </c>
       <c r="B63" t="s">
@@ -2096,7 +2106,7 @@
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="5">
+      <c r="A64">
         <v>10</v>
       </c>
       <c r="B64" t="s">
@@ -2122,7 +2132,7 @@
       </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="5">
+      <c r="A65">
         <v>10</v>
       </c>
       <c r="B65" t="s">
@@ -2148,7 +2158,7 @@
       </c>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="5">
+      <c r="A66">
         <v>10</v>
       </c>
       <c r="B66" t="s">
@@ -2174,7 +2184,7 @@
       </c>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="5">
+      <c r="A67">
         <v>10</v>
       </c>
       <c r="B67" t="s">
@@ -2200,7 +2210,7 @@
       </c>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="5">
+      <c r="A68">
         <v>10</v>
       </c>
       <c r="B68" t="s">
@@ -2226,7 +2236,7 @@
       </c>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="5">
+      <c r="A69">
         <v>10</v>
       </c>
       <c r="B69" t="s">
@@ -2252,7 +2262,7 @@
       </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="5">
+      <c r="A70">
         <v>10</v>
       </c>
       <c r="B70" t="s">
@@ -2278,7 +2288,7 @@
       </c>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="5">
+      <c r="A71">
         <v>10</v>
       </c>
       <c r="B71" t="s">
@@ -2304,7 +2314,7 @@
       </c>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="5">
+      <c r="A72">
         <v>10</v>
       </c>
       <c r="B72" t="s">
@@ -2330,7 +2340,7 @@
       </c>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="5">
+      <c r="A73">
         <v>10</v>
       </c>
       <c r="B73" t="s">
@@ -2356,7 +2366,7 @@
       </c>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="5">
+      <c r="A74">
         <v>10</v>
       </c>
       <c r="B74" t="s">
@@ -2382,7 +2392,7 @@
       </c>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="5">
+      <c r="A75">
         <v>10</v>
       </c>
       <c r="B75" t="s">
@@ -2408,7 +2418,7 @@
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="5">
+      <c r="A76">
         <v>10</v>
       </c>
       <c r="B76" t="s">
@@ -2447,8 +2457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -2499,23 +2509,23 @@
         <f>main!B2</f>
         <v>Extra-trees</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <f>AVERAGE(main!C2:C6)</f>
         <v>88.894000000000005</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <f>AVERAGE(main!D2:D6)</f>
         <v>90.936000000000007</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <f>AVERAGE(main!E2:E6)</f>
         <v>46.75</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <f>AVERAGE(main!F2:F6)</f>
         <v>96.51</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="4">
         <f>AVERAGE(main!G2:G6)</f>
         <v>11.106</v>
       </c>
@@ -2529,23 +2539,23 @@
         <f>main!B7</f>
         <v>SVM kernel linear</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <f>AVERAGE(main!C7:C11)</f>
         <v>88.246000000000009</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <f>AVERAGE(main!D7:D11)</f>
         <v>89.027999999999992</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <f>AVERAGE(main!E7:E11)</f>
         <v>33.08</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="4">
         <f>AVERAGE(main!F7:F11)</f>
         <v>98.227999999999994</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="4">
         <f>AVERAGE(main!G7:G11)</f>
         <v>11.754000000000001</v>
       </c>
@@ -2559,23 +2569,23 @@
         <f>main!B12</f>
         <v>SVM kernel poly</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <f>AVERAGE(main!C12:C16)</f>
         <v>87.921999999999997</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <f>AVERAGE(main!D12:D16)</f>
         <v>88.388000000000005</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <f>AVERAGE(main!E12:E16)</f>
         <v>28.297999999999995</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
         <f>AVERAGE(main!F12:F16)</f>
         <v>98.71</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="4">
         <f>AVERAGE(main!G12:G16)</f>
         <v>12.077999999999999</v>
       </c>
@@ -2589,23 +2599,23 @@
         <f>main!B17</f>
         <v>SVM kernel rbf</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <f>AVERAGE(main!C17:C21)</f>
         <v>89.156000000000006</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <f>AVERAGE(main!D17:D21)</f>
         <v>90.070000000000007</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <f>AVERAGE(main!E17:E21)</f>
         <v>40.317999999999998</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <f>AVERAGE(main!F17:F21)</f>
         <v>98</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="4">
         <f>AVERAGE(main!G17:G21)</f>
         <v>10.844000000000001</v>
       </c>
@@ -2619,23 +2629,23 @@
         <f>main!B22</f>
         <v>SVM kernel sigmoid</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <f>AVERAGE(main!C22:C26)</f>
         <v>73.299999999999983</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <f>AVERAGE(main!D22:D26)</f>
         <v>83.768000000000001</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <f>AVERAGE(main!E22:E26)</f>
         <v>8.9619999999999997</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <f>AVERAGE(main!F22:F26)</f>
         <v>84.93</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="4">
         <f>AVERAGE(main!G22:G26)</f>
         <v>26.7</v>
       </c>
@@ -2649,23 +2659,23 @@
         <f>main!B27</f>
         <v>Extra-trees</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <f>AVERAGE(main!C27:C31)</f>
         <v>89.095999999999989</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <f>AVERAGE(main!D27:D31)</f>
         <v>91.003999999999991</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <f>AVERAGE(main!E27:E31)</f>
         <v>47.186</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <f>AVERAGE(main!F27:F31)</f>
         <v>96.691999999999993</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="4">
         <f>AVERAGE(main!G27:G31)</f>
         <v>10.904</v>
       </c>
@@ -2679,23 +2689,23 @@
         <f>main!B32</f>
         <v>SVM kernel linear</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <f>AVERAGE(main!C32:C36)</f>
         <v>88.254000000000005</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <f>AVERAGE(main!D32:D36)</f>
         <v>89.035999999999987</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
         <f>AVERAGE(main!E32:E36)</f>
         <v>33.070000000000007</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="4">
         <f>AVERAGE(main!F32:F36)</f>
         <v>98.227999999999994</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="4">
         <f>AVERAGE(main!G32:G36)</f>
         <v>11.746</v>
       </c>
@@ -2709,23 +2719,23 @@
         <f>main!B37</f>
         <v>SVM kernel poly</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="4">
         <f>AVERAGE(main!C37:C41)</f>
         <v>87.947999999999993</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
         <f>AVERAGE(main!D37:D41)</f>
         <v>88.402000000000001</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="4">
         <f>AVERAGE(main!E37:E41)</f>
         <v>28.378000000000004</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="4">
         <f>AVERAGE(main!F37:F41)</f>
         <v>98.71599999999998</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="4">
         <f>AVERAGE(main!G37:G41)</f>
         <v>12.052000000000001</v>
       </c>
@@ -2739,23 +2749,23 @@
         <f>main!B42</f>
         <v>SVM kernel rbf</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="4">
         <f>AVERAGE(main!C42:C46)</f>
         <v>89.156000000000006</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <f>AVERAGE(main!D42:D46)</f>
         <v>90.1</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
         <f>AVERAGE(main!E42:E46)</f>
         <v>40.508000000000003</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="4">
         <f>AVERAGE(main!F42:F46)</f>
         <v>97.953999999999994</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="4">
         <f>AVERAGE(main!G42:G46)</f>
         <v>10.843999999999999</v>
       </c>
@@ -2769,23 +2779,23 @@
         <f>main!B47</f>
         <v>SVM kernel sigmoid</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="4">
         <f>AVERAGE(main!C47:C51)</f>
         <v>73.202000000000012</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4">
         <f>AVERAGE(main!D47:D51)</f>
         <v>83.748000000000005</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="4">
         <f>AVERAGE(main!E47:E51)</f>
         <v>8.8559999999999999</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="4">
         <f>AVERAGE(main!F47:F51)</f>
         <v>84.824000000000012</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="4">
         <f>AVERAGE(main!G47:G51)</f>
         <v>26.798000000000002</v>
       </c>
@@ -2799,23 +2809,23 @@
         <f>main!B52</f>
         <v>Extra-trees</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="4">
         <f>AVERAGE(main!C52:C56)</f>
         <v>89.122</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
         <f>AVERAGE(main!D52:D56)</f>
         <v>91.034000000000006</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="4">
         <f>AVERAGE(main!E52:E56)</f>
         <v>47.464000000000006</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="4">
         <f>AVERAGE(main!F52:F56)</f>
         <v>96.671999999999997</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="4">
         <f>AVERAGE(main!G52:G56)</f>
         <v>10.878</v>
       </c>
@@ -2829,23 +2839,23 @@
         <f>main!B57</f>
         <v>SVM kernel linear</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="4">
         <f>AVERAGE(main!C57:C61)</f>
         <v>88.23</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="4">
         <f>AVERAGE(main!D57:D61)</f>
         <v>89.003999999999991</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="4">
         <f>AVERAGE(main!E57:E61)</f>
         <v>32.828000000000003</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="4">
         <f>AVERAGE(main!F57:F61)</f>
         <v>98.24799999999999</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="4">
         <f>AVERAGE(main!G57:G61)</f>
         <v>11.77</v>
       </c>
@@ -2859,23 +2869,23 @@
         <f>main!B62</f>
         <v>SVM kernel poly</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="4">
         <f>AVERAGE(main!C62:C66)</f>
         <v>87.921999999999997</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="4">
         <f>AVERAGE(main!D62:D66)</f>
         <v>88.362000000000009</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="4">
         <f>AVERAGE(main!E62:E66)</f>
         <v>28.060000000000002</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="4">
         <f>AVERAGE(main!F62:F66)</f>
         <v>98.744</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="4">
         <f>AVERAGE(main!G62:G66)</f>
         <v>12.077999999999999</v>
       </c>
@@ -2889,23 +2899,23 @@
         <f>main!B7</f>
         <v>SVM kernel linear</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="4">
         <f>AVERAGE(main!C67:C71)</f>
         <v>89.126000000000005</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="4">
         <f>AVERAGE(main!D67:D71)</f>
         <v>90.075999999999993</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="4">
         <f>AVERAGE(main!E67:E71)</f>
         <v>40.436000000000007</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="4">
         <f>AVERAGE(main!F67:F71)</f>
         <v>97.962000000000003</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="4">
         <f>AVERAGE(main!G67:G71)</f>
         <v>10.873999999999999</v>
       </c>
@@ -2919,23 +2929,23 @@
         <f>main!B72</f>
         <v>SVM kernel sigmoid</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="4">
         <f>AVERAGE(main!C72:C76)</f>
         <v>73.25</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="4">
         <f>AVERAGE(main!D72:D76)</f>
         <v>83.789999999999992</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="4">
         <f>AVERAGE(main!E72:E76)</f>
         <v>9.2800000000000011</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="4">
         <f>AVERAGE(main!F72:F76)</f>
         <v>84.808000000000007</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="4">
         <f>AVERAGE(main!G72:G76)</f>
         <v>26.75</v>
       </c>
@@ -2952,8 +2962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B933AAEC-236B-4D22-AF27-850391C1FB4B}">
   <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J78" sqref="J78"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3052,23 +3062,23 @@
         <f>main!H2</f>
         <v>1</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="7">
         <f>average!C2</f>
         <v>88.894000000000005</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="7">
         <f>average!D2</f>
         <v>90.936000000000007</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="7">
         <f>average!E2</f>
         <v>46.75</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="7">
         <f>average!F2</f>
         <v>96.51</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="7">
         <f>average!G2</f>
         <v>11.106</v>
       </c>
@@ -3106,11 +3116,11 @@
         <f>main!H3</f>
         <v>2</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4">
@@ -3145,11 +3155,11 @@
         <f>main!H4</f>
         <v>3</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5">
@@ -3184,11 +3194,11 @@
         <f>main!H5</f>
         <v>4</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6">
@@ -3223,11 +3233,11 @@
         <f>main!H6</f>
         <v>5</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7">
@@ -3262,23 +3272,23 @@
         <f>main!H7</f>
         <v>1</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="7">
         <f>average!C3</f>
         <v>88.246000000000009</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="7">
         <f>average!D3</f>
         <v>89.027999999999992</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="7">
         <f>average!E3</f>
         <v>33.08</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="7">
         <f>average!F3</f>
         <v>98.227999999999994</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="7">
         <f>average!G3</f>
         <v>11.754000000000001</v>
       </c>
@@ -3316,11 +3326,11 @@
         <f>main!H8</f>
         <v>2</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9">
@@ -3355,11 +3365,11 @@
         <f>main!H9</f>
         <v>3</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10">
@@ -3394,11 +3404,11 @@
         <f>main!H10</f>
         <v>4</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11">
@@ -3433,11 +3443,11 @@
         <f>main!H11</f>
         <v>5</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12">
@@ -3472,23 +3482,23 @@
         <f>main!H12</f>
         <v>1</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="7">
         <f>average!C4</f>
         <v>87.921999999999997</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="7">
         <f>average!D4</f>
         <v>88.388000000000005</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="7">
         <f>average!E4</f>
         <v>28.297999999999995</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="7">
         <f>average!F4</f>
         <v>98.71</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="7">
         <f>average!G4</f>
         <v>12.077999999999999</v>
       </c>
@@ -3526,11 +3536,11 @@
         <f>main!H13</f>
         <v>2</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14">
@@ -3565,11 +3575,11 @@
         <f>main!H14</f>
         <v>3</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15">
@@ -3604,11 +3614,11 @@
         <f>main!H15</f>
         <v>4</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16">
@@ -3643,11 +3653,11 @@
         <f>main!H16</f>
         <v>5</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17">
@@ -3682,23 +3692,23 @@
         <f>main!H17</f>
         <v>1</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="7">
         <f>average!C5</f>
         <v>89.156000000000006</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="7">
         <f>average!D5</f>
         <v>90.070000000000007</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="7">
         <f>average!E5</f>
         <v>40.317999999999998</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="7">
         <f>average!F5</f>
         <v>98</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="7">
         <f>average!G5</f>
         <v>10.844000000000001</v>
       </c>
@@ -3736,11 +3746,11 @@
         <f>main!H18</f>
         <v>2</v>
       </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19">
@@ -3775,11 +3785,11 @@
         <f>main!H19</f>
         <v>3</v>
       </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20">
@@ -3814,11 +3824,11 @@
         <f>main!H20</f>
         <v>4</v>
       </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21">
@@ -3853,11 +3863,11 @@
         <f>main!H21</f>
         <v>5</v>
       </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22">
@@ -3892,23 +3902,23 @@
         <f>main!H22</f>
         <v>1</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="7">
         <f>average!C6</f>
         <v>73.299999999999983</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="7">
         <f>average!D6</f>
         <v>83.768000000000001</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="7">
         <f>average!E6</f>
         <v>8.9619999999999997</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="7">
         <f>average!F6</f>
         <v>84.93</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M22" s="7">
         <f>average!G6</f>
         <v>26.7</v>
       </c>
@@ -3946,11 +3956,11 @@
         <f>main!H23</f>
         <v>2</v>
       </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24">
@@ -3985,11 +3995,11 @@
         <f>main!H24</f>
         <v>3</v>
       </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25">
@@ -4024,11 +4034,11 @@
         <f>main!H25</f>
         <v>4</v>
       </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26">
@@ -4063,11 +4073,11 @@
         <f>main!H26</f>
         <v>5</v>
       </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27">
@@ -4102,23 +4112,23 @@
         <f>main!H27</f>
         <v>1</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="7">
         <f>average!C7</f>
         <v>89.095999999999989</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="7">
         <f>average!D7</f>
         <v>91.003999999999991</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="7">
         <f>average!E7</f>
         <v>47.186</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L27" s="7">
         <f>average!F7</f>
         <v>96.691999999999993</v>
       </c>
-      <c r="M27" s="4">
+      <c r="M27" s="7">
         <f>average!G7</f>
         <v>10.904</v>
       </c>
@@ -4156,11 +4166,11 @@
         <f>main!H28</f>
         <v>2</v>
       </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29">
@@ -4195,11 +4205,11 @@
         <f>main!H29</f>
         <v>3</v>
       </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30">
@@ -4234,11 +4244,11 @@
         <f>main!H30</f>
         <v>4</v>
       </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31">
@@ -4273,11 +4283,11 @@
         <f>main!H31</f>
         <v>5</v>
       </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32">
@@ -4312,23 +4322,23 @@
         <f>main!H32</f>
         <v>1</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32" s="7">
         <f>average!C8</f>
         <v>88.254000000000005</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J32" s="7">
         <f>average!D8</f>
         <v>89.035999999999987</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32" s="7">
         <f>average!E8</f>
         <v>33.070000000000007</v>
       </c>
-      <c r="L32" s="4">
+      <c r="L32" s="7">
         <f>average!F8</f>
         <v>98.227999999999994</v>
       </c>
-      <c r="M32" s="4">
+      <c r="M32" s="7">
         <f>average!G8</f>
         <v>11.746</v>
       </c>
@@ -4366,11 +4376,11 @@
         <f>main!H33</f>
         <v>2</v>
       </c>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34">
@@ -4405,11 +4415,11 @@
         <f>main!H34</f>
         <v>3</v>
       </c>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35">
@@ -4444,11 +4454,11 @@
         <f>main!H35</f>
         <v>4</v>
       </c>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36">
@@ -4483,11 +4493,11 @@
         <f>main!H36</f>
         <v>5</v>
       </c>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37">
@@ -4522,23 +4532,23 @@
         <f>main!H37</f>
         <v>1</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I37" s="7">
         <f>average!C9</f>
         <v>87.947999999999993</v>
       </c>
-      <c r="J37" s="4">
+      <c r="J37" s="7">
         <f>average!D9</f>
         <v>88.402000000000001</v>
       </c>
-      <c r="K37" s="4">
+      <c r="K37" s="7">
         <f>average!E9</f>
         <v>28.378000000000004</v>
       </c>
-      <c r="L37" s="4">
+      <c r="L37" s="7">
         <f>average!F9</f>
         <v>98.71599999999998</v>
       </c>
-      <c r="M37" s="4">
+      <c r="M37" s="7">
         <f>average!G9</f>
         <v>12.052000000000001</v>
       </c>
@@ -4576,11 +4586,11 @@
         <f>main!H38</f>
         <v>2</v>
       </c>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
     </row>
     <row r="39" spans="1:13">
       <c r="A39">
@@ -4615,11 +4625,11 @@
         <f>main!H39</f>
         <v>3</v>
       </c>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
     </row>
     <row r="40" spans="1:13">
       <c r="A40">
@@ -4654,11 +4664,11 @@
         <f>main!H40</f>
         <v>4</v>
       </c>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41">
@@ -4693,11 +4703,11 @@
         <f>main!H41</f>
         <v>5</v>
       </c>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42">
@@ -4732,23 +4742,23 @@
         <f>main!H42</f>
         <v>1</v>
       </c>
-      <c r="I42" s="4">
+      <c r="I42" s="7">
         <f>average!C10</f>
         <v>89.156000000000006</v>
       </c>
-      <c r="J42" s="4">
+      <c r="J42" s="7">
         <f>average!D10</f>
         <v>90.1</v>
       </c>
-      <c r="K42" s="4">
+      <c r="K42" s="7">
         <f>average!E10</f>
         <v>40.508000000000003</v>
       </c>
-      <c r="L42" s="4">
+      <c r="L42" s="7">
         <f>average!F10</f>
         <v>97.953999999999994</v>
       </c>
-      <c r="M42" s="4">
+      <c r="M42" s="7">
         <f>average!G10</f>
         <v>10.843999999999999</v>
       </c>
@@ -4786,11 +4796,11 @@
         <f>main!H43</f>
         <v>2</v>
       </c>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44">
@@ -4825,11 +4835,11 @@
         <f>main!H44</f>
         <v>3</v>
       </c>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
     </row>
     <row r="45" spans="1:13">
       <c r="A45">
@@ -4864,11 +4874,11 @@
         <f>main!H45</f>
         <v>4</v>
       </c>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
     </row>
     <row r="46" spans="1:13">
       <c r="A46">
@@ -4903,11 +4913,11 @@
         <f>main!H46</f>
         <v>5</v>
       </c>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
     </row>
     <row r="47" spans="1:13">
       <c r="A47">
@@ -4942,23 +4952,23 @@
         <f>main!H47</f>
         <v>1</v>
       </c>
-      <c r="I47" s="4">
+      <c r="I47" s="7">
         <f>average!C11</f>
         <v>73.202000000000012</v>
       </c>
-      <c r="J47" s="4">
+      <c r="J47" s="7">
         <f>average!D11</f>
         <v>83.748000000000005</v>
       </c>
-      <c r="K47" s="4">
+      <c r="K47" s="7">
         <f>average!E11</f>
         <v>8.8559999999999999</v>
       </c>
-      <c r="L47" s="4">
+      <c r="L47" s="7">
         <f>average!F11</f>
         <v>84.824000000000012</v>
       </c>
-      <c r="M47" s="4">
+      <c r="M47" s="7">
         <f>average!G11</f>
         <v>26.798000000000002</v>
       </c>
@@ -4996,11 +5006,11 @@
         <f>main!H48</f>
         <v>2</v>
       </c>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
     </row>
     <row r="49" spans="1:13">
       <c r="A49">
@@ -5035,11 +5045,11 @@
         <f>main!H49</f>
         <v>3</v>
       </c>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
     </row>
     <row r="50" spans="1:13">
       <c r="A50">
@@ -5074,11 +5084,11 @@
         <f>main!H50</f>
         <v>4</v>
       </c>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
     </row>
     <row r="51" spans="1:13">
       <c r="A51">
@@ -5113,11 +5123,11 @@
         <f>main!H51</f>
         <v>5</v>
       </c>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
     </row>
     <row r="52" spans="1:13">
       <c r="A52">
@@ -5152,23 +5162,23 @@
         <f>main!H52</f>
         <v>1</v>
       </c>
-      <c r="I52" s="4">
+      <c r="I52" s="7">
         <f>average!C12</f>
         <v>89.122</v>
       </c>
-      <c r="J52" s="4">
+      <c r="J52" s="7">
         <f>average!D12</f>
         <v>91.034000000000006</v>
       </c>
-      <c r="K52" s="4">
+      <c r="K52" s="7">
         <f>average!E12</f>
         <v>47.464000000000006</v>
       </c>
-      <c r="L52" s="4">
+      <c r="L52" s="7">
         <f>average!F12</f>
         <v>96.671999999999997</v>
       </c>
-      <c r="M52" s="4">
+      <c r="M52" s="7">
         <f>average!G12</f>
         <v>10.878</v>
       </c>
@@ -5206,11 +5216,11 @@
         <f>main!H53</f>
         <v>2</v>
       </c>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
     </row>
     <row r="54" spans="1:13">
       <c r="A54">
@@ -5245,11 +5255,11 @@
         <f>main!H54</f>
         <v>3</v>
       </c>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
     </row>
     <row r="55" spans="1:13">
       <c r="A55">
@@ -5284,11 +5294,11 @@
         <f>main!H55</f>
         <v>4</v>
       </c>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
     </row>
     <row r="56" spans="1:13">
       <c r="A56">
@@ -5323,11 +5333,11 @@
         <f>main!H56</f>
         <v>5</v>
       </c>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
     </row>
     <row r="57" spans="1:13">
       <c r="A57">
@@ -5362,23 +5372,23 @@
         <f>main!H57</f>
         <v>1</v>
       </c>
-      <c r="I57" s="4">
+      <c r="I57" s="7">
         <f>average!C13</f>
         <v>88.23</v>
       </c>
-      <c r="J57" s="4">
+      <c r="J57" s="7">
         <f>average!D13</f>
         <v>89.003999999999991</v>
       </c>
-      <c r="K57" s="4">
+      <c r="K57" s="7">
         <f>average!E13</f>
         <v>32.828000000000003</v>
       </c>
-      <c r="L57" s="4">
+      <c r="L57" s="7">
         <f>average!F13</f>
         <v>98.24799999999999</v>
       </c>
-      <c r="M57" s="4">
+      <c r="M57" s="7">
         <f>average!G13</f>
         <v>11.77</v>
       </c>
@@ -5416,11 +5426,11 @@
         <f>main!H58</f>
         <v>2</v>
       </c>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59">
@@ -5455,11 +5465,11 @@
         <f>main!H59</f>
         <v>3</v>
       </c>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
     </row>
     <row r="60" spans="1:13">
       <c r="A60">
@@ -5494,11 +5504,11 @@
         <f>main!H60</f>
         <v>4</v>
       </c>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
     </row>
     <row r="61" spans="1:13">
       <c r="A61">
@@ -5533,11 +5543,11 @@
         <f>main!H61</f>
         <v>5</v>
       </c>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
     </row>
     <row r="62" spans="1:13">
       <c r="A62">
@@ -5572,23 +5582,23 @@
         <f>main!H62</f>
         <v>1</v>
       </c>
-      <c r="I62" s="4">
+      <c r="I62" s="7">
         <f>average!C14</f>
         <v>87.921999999999997</v>
       </c>
-      <c r="J62" s="4">
+      <c r="J62" s="7">
         <f>average!D14</f>
         <v>88.362000000000009</v>
       </c>
-      <c r="K62" s="4">
+      <c r="K62" s="7">
         <f>average!E14</f>
         <v>28.060000000000002</v>
       </c>
-      <c r="L62" s="4">
+      <c r="L62" s="7">
         <f>average!F14</f>
         <v>98.744</v>
       </c>
-      <c r="M62" s="4">
+      <c r="M62" s="7">
         <f>average!G14</f>
         <v>12.077999999999999</v>
       </c>
@@ -5626,11 +5636,11 @@
         <f>main!H63</f>
         <v>2</v>
       </c>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
     </row>
     <row r="64" spans="1:13">
       <c r="A64">
@@ -5665,11 +5675,11 @@
         <f>main!H64</f>
         <v>3</v>
       </c>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
     </row>
     <row r="65" spans="1:13">
       <c r="A65">
@@ -5704,11 +5714,11 @@
         <f>main!H65</f>
         <v>4</v>
       </c>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
     </row>
     <row r="66" spans="1:13">
       <c r="A66">
@@ -5743,11 +5753,11 @@
         <f>main!H66</f>
         <v>5</v>
       </c>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
     </row>
     <row r="67" spans="1:13">
       <c r="A67">
@@ -5782,23 +5792,23 @@
         <f>main!H67</f>
         <v>1</v>
       </c>
-      <c r="I67" s="4">
+      <c r="I67" s="7">
         <f>average!C15</f>
         <v>89.126000000000005</v>
       </c>
-      <c r="J67" s="4">
+      <c r="J67" s="7">
         <f>average!D15</f>
         <v>90.075999999999993</v>
       </c>
-      <c r="K67" s="4">
+      <c r="K67" s="7">
         <f>average!E15</f>
         <v>40.436000000000007</v>
       </c>
-      <c r="L67" s="4">
+      <c r="L67" s="7">
         <f>average!F15</f>
         <v>97.962000000000003</v>
       </c>
-      <c r="M67" s="4">
+      <c r="M67" s="7">
         <f>average!G15</f>
         <v>10.873999999999999</v>
       </c>
@@ -5836,11 +5846,11 @@
         <f>main!H68</f>
         <v>2</v>
       </c>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
-      <c r="M68" s="4"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
     </row>
     <row r="69" spans="1:13">
       <c r="A69">
@@ -5875,11 +5885,11 @@
         <f>main!H69</f>
         <v>3</v>
       </c>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
     </row>
     <row r="70" spans="1:13">
       <c r="A70">
@@ -5914,11 +5924,11 @@
         <f>main!H70</f>
         <v>4</v>
       </c>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-      <c r="M70" s="4"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
     </row>
     <row r="71" spans="1:13">
       <c r="A71">
@@ -5953,11 +5963,11 @@
         <f>main!H71</f>
         <v>5</v>
       </c>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
     </row>
     <row r="72" spans="1:13">
       <c r="A72">
@@ -5992,23 +6002,23 @@
         <f>main!H72</f>
         <v>1</v>
       </c>
-      <c r="I72" s="4">
+      <c r="I72" s="7">
         <f>average!C16</f>
         <v>73.25</v>
       </c>
-      <c r="J72" s="4">
+      <c r="J72" s="7">
         <f>average!D16</f>
         <v>83.789999999999992</v>
       </c>
-      <c r="K72" s="4">
+      <c r="K72" s="7">
         <f>average!E16</f>
         <v>9.2800000000000011</v>
       </c>
-      <c r="L72" s="4">
+      <c r="L72" s="7">
         <f>average!F16</f>
         <v>84.808000000000007</v>
       </c>
-      <c r="M72" s="4">
+      <c r="M72" s="7">
         <f>average!G16</f>
         <v>26.75</v>
       </c>
@@ -6046,11 +6056,11 @@
         <f>main!H73</f>
         <v>2</v>
       </c>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
-      <c r="M73" s="4"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
     </row>
     <row r="74" spans="1:13">
       <c r="A74">
@@ -6085,11 +6095,11 @@
         <f>main!H74</f>
         <v>3</v>
       </c>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
-      <c r="M74" s="4"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
     </row>
     <row r="75" spans="1:13">
       <c r="A75">
@@ -6124,11 +6134,11 @@
         <f>main!H75</f>
         <v>4</v>
       </c>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
-      <c r="M75" s="4"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
     </row>
     <row r="76" spans="1:13">
       <c r="A76">
@@ -6163,11 +6173,11 @@
         <f>main!H76</f>
         <v>5</v>
       </c>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
-      <c r="M76" s="4"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="75">
